--- a/386示意图.xlsx
+++ b/386示意图.xlsx
@@ -4,14 +4,17 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="3195" windowWidth="15315" windowHeight="3240" activeTab="4"/>
+    <workbookView xWindow="-15" yWindow="3195" windowWidth="15315" windowHeight="3240" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="结构图" sheetId="3" r:id="rId1"/>
     <sheet name="寄存器" sheetId="1" r:id="rId2"/>
     <sheet name="描述符" sheetId="2" r:id="rId3"/>
     <sheet name="内存分布" sheetId="4" r:id="rId4"/>
-    <sheet name="指令集" sheetId="5" r:id="rId5"/>
+    <sheet name="传送指令" sheetId="7" r:id="rId5"/>
+    <sheet name="转移指令" sheetId="5" r:id="rId6"/>
+    <sheet name="寻址方式" sheetId="6" r:id="rId7"/>
+    <sheet name="中断" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
@@ -635,7 +638,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="298">
   <si>
     <t>31       16</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1426,56 +1429,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>只有si,di,bx,bp这4个可以在[]中寻指</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>组合的话，[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>x+si],[bx+di],[bp+si],[bp+di}这4种是可以的</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>p默认的段地址是ss</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>byte ptr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>word ptr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>j</t>
     </r>
@@ -1766,6 +1719,397 @@
   </si>
   <si>
     <t>(IP)=(IP)+16位位移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接寻址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>idata]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bx|si|di|bp]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄存器间接寻址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄存器相对寻址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[bx|si|di|bp+idata]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基址变址寻址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[bx|bp+si|di]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相对基址变址寻址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[bx|bp+si|di+idata]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>s:idata</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ds:(bx+si|di),ss:(bp+si|di)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ds:(bx|si|di+idata),ss:(bp+idata)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ds:(bx|si|di),ss:bp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ds:(bx+si|di+idata),ss:(bp+si|di+idata)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mov指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S DS ES SS</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>data</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X BX CX DX BP SP SI DI</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>----------&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能直接改变 CS 的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段寄存器间不能传送数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个操作数不能是存储器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个操作数的类型必须一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断向量表指定在内存 0000:0000 到 0000:03FF 的 1024 个单元中存放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8086PC 机可以表示 256 种中断信息的来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断可分为内中断与外中断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内中断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 除法错误，0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 单步执行，1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 执行 into 指令，4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 执行 int 指令，n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 取得中断类型码 N</t>
+  </si>
+  <si>
+    <t>3 TF=0, IF=0 (禁止单步和可屏蔽中断)</t>
+  </si>
+  <si>
+    <t>4 push CS</t>
+  </si>
+  <si>
+    <t>5 push IP</t>
+  </si>
+  <si>
+    <t>6 (IP)=(N*4), (CS)=(N*4+2)</t>
+  </si>
+  <si>
+    <t>2 pushf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内中断过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外中断</t>
+  </si>
+  <si>
+    <t>分为可屏蔽中断和不可屏蔽中断。可屏蔽中断过程和内中断类似。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可屏蔽中断类型码固定为 2，其中断过程如下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 pushf</t>
+  </si>
+  <si>
+    <t>2 TF=0, IF=0 (禁止单步和可屏蔽中断)</t>
+  </si>
+  <si>
+    <t>3 push CS</t>
+  </si>
+  <si>
+    <t>4 push IP</t>
+  </si>
+  <si>
+    <t>5 (IP)=(8), (CS)=(0AH)</t>
+  </si>
+  <si>
+    <t>相关指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iret</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">相当于 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pop IP,pop CS,popf</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pushf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将标志寄存器的值压栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>popf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从栈中弹出数据，送入标志寄存器中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>串传送指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movesb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>move es:[di],byte ptr ds:[si]</t>
+  </si>
+  <si>
+    <t>df = 0</t>
+  </si>
+  <si>
+    <t>inc si</t>
+  </si>
+  <si>
+    <t>inc di</t>
+  </si>
+  <si>
+    <t>df = 1</t>
+  </si>
+  <si>
+    <t>dec si</t>
+  </si>
+  <si>
+    <t>dec di</t>
+  </si>
+  <si>
+    <t>movsw</t>
+  </si>
+  <si>
+    <t>move es:[di],word ptr ds:[si]</t>
+  </si>
+  <si>
+    <t>add si,2 add di,2</t>
+  </si>
+  <si>
+    <t>sub si,2 sub di,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  loop s</t>
+  </si>
+  <si>
+    <r>
+      <t>s:movsb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>|movsw</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rep movsb|movsw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cld|std</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将标志寄存器的 df 位置 0|1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sti|cli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置 IF=1|0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2215,369 +2559,369 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4056,6 +4400,201 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直接箭头连接符 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="933450" y="542925"/>
+          <a:ext cx="438150" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直接箭头连接符 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="504825"/>
+          <a:ext cx="361950" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直接箭头连接符 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="923925" y="952500"/>
+          <a:ext cx="409575" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>914401</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直接箭头连接符 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2247901" y="1038225"/>
+          <a:ext cx="200025" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -4354,111 +4893,111 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:46">
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="26"/>
-      <c r="S2" s="24" t="s">
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="31"/>
+      <c r="S2" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="26"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="31"/>
     </row>
     <row r="3" spans="2:46">
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="29"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="29"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="34"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="34"/>
     </row>
     <row r="4" spans="2:46">
-      <c r="AC4" s="24" t="s">
+      <c r="AC4" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="26"/>
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="30"/>
+      <c r="AF4" s="30"/>
+      <c r="AG4" s="30"/>
+      <c r="AH4" s="30"/>
+      <c r="AI4" s="31"/>
     </row>
     <row r="5" spans="2:46" ht="14.25" customHeight="1">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
-      <c r="I5" s="24" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="I5" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="26"/>
-      <c r="S5" s="24" t="s">
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="31"/>
+      <c r="S5" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="26"/>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="37"/>
-      <c r="AE5" s="37"/>
-      <c r="AF5" s="37"/>
-      <c r="AG5" s="37"/>
-      <c r="AH5" s="37"/>
-      <c r="AI5" s="38"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="31"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="36"/>
+      <c r="AI5" s="37"/>
     </row>
     <row r="6" spans="2:46">
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="29"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="29"/>
-      <c r="AC6" s="39"/>
-      <c r="AD6" s="40"/>
-      <c r="AE6" s="40"/>
-      <c r="AF6" s="40"/>
-      <c r="AG6" s="40"/>
-      <c r="AH6" s="40"/>
-      <c r="AI6" s="41"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="34"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="34"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="39"/>
+      <c r="AF6" s="39"/>
+      <c r="AG6" s="39"/>
+      <c r="AH6" s="39"/>
+      <c r="AI6" s="40"/>
     </row>
     <row r="7" spans="2:46">
       <c r="I7" s="19"/>
@@ -4475,49 +5014,49 @@
       <c r="W7" s="20"/>
       <c r="X7" s="20"/>
       <c r="Y7" s="21"/>
-      <c r="AC7" s="42"/>
-      <c r="AD7" s="43"/>
-      <c r="AE7" s="43"/>
-      <c r="AF7" s="43"/>
-      <c r="AG7" s="43"/>
-      <c r="AH7" s="43"/>
-      <c r="AI7" s="44"/>
+      <c r="AC7" s="41"/>
+      <c r="AD7" s="42"/>
+      <c r="AE7" s="42"/>
+      <c r="AF7" s="42"/>
+      <c r="AG7" s="42"/>
+      <c r="AH7" s="42"/>
+      <c r="AI7" s="43"/>
     </row>
     <row r="8" spans="2:46" ht="14.25" customHeight="1">
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="26"/>
-      <c r="S8" s="24" t="s">
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="31"/>
+      <c r="S8" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="26"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="31"/>
     </row>
     <row r="9" spans="2:46">
-      <c r="I9" s="27"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="29"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="29"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="34"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="34"/>
     </row>
     <row r="10" spans="2:46">
       <c r="I10" s="19"/>
@@ -4534,75 +5073,75 @@
       <c r="W10" s="20"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="21"/>
-      <c r="AC10" s="24" t="s">
+      <c r="AC10" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="AD10" s="25"/>
-      <c r="AE10" s="25"/>
-      <c r="AF10" s="25"/>
-      <c r="AG10" s="25"/>
-      <c r="AH10" s="25"/>
-      <c r="AI10" s="26"/>
+      <c r="AD10" s="30"/>
+      <c r="AE10" s="30"/>
+      <c r="AF10" s="30"/>
+      <c r="AG10" s="30"/>
+      <c r="AH10" s="30"/>
+      <c r="AI10" s="31"/>
     </row>
     <row r="11" spans="2:46" ht="14.25" customHeight="1">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32"/>
-      <c r="I11" s="24" t="s">
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
+      <c r="I11" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="26"/>
-      <c r="S11" s="24" t="s">
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="31"/>
+      <c r="S11" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="26"/>
-      <c r="AC11" s="36"/>
-      <c r="AD11" s="37"/>
-      <c r="AE11" s="37"/>
-      <c r="AF11" s="37"/>
-      <c r="AG11" s="37"/>
-      <c r="AH11" s="37"/>
-      <c r="AI11" s="38"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="31"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="36"/>
+      <c r="AF11" s="36"/>
+      <c r="AG11" s="36"/>
+      <c r="AH11" s="36"/>
+      <c r="AI11" s="37"/>
     </row>
     <row r="12" spans="2:46">
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="35"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="29"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="29"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="40"/>
-      <c r="AE12" s="40"/>
-      <c r="AF12" s="40"/>
-      <c r="AG12" s="40"/>
-      <c r="AH12" s="40"/>
-      <c r="AI12" s="41"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="34"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="34"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="39"/>
+      <c r="AE12" s="39"/>
+      <c r="AF12" s="39"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="39"/>
+      <c r="AI12" s="40"/>
       <c r="AS12" t="s">
         <v>126</v>
       </c>
@@ -4625,13 +5164,13 @@
       <c r="W13" s="20"/>
       <c r="X13" s="20"/>
       <c r="Y13" s="21"/>
-      <c r="AC13" s="42"/>
-      <c r="AD13" s="43"/>
-      <c r="AE13" s="43"/>
-      <c r="AF13" s="43"/>
-      <c r="AG13" s="43"/>
-      <c r="AH13" s="43"/>
-      <c r="AI13" s="44"/>
+      <c r="AC13" s="41"/>
+      <c r="AD13" s="42"/>
+      <c r="AE13" s="42"/>
+      <c r="AF13" s="42"/>
+      <c r="AG13" s="42"/>
+      <c r="AH13" s="42"/>
+      <c r="AI13" s="43"/>
       <c r="AS13" t="s">
         <v>127</v>
       </c>
@@ -4640,50 +5179,50 @@
       </c>
     </row>
     <row r="14" spans="2:46">
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32"/>
-      <c r="I14" s="24" t="s">
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="46"/>
+      <c r="I14" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="26"/>
-      <c r="S14" s="24" t="s">
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="31"/>
+      <c r="S14" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="26"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="31"/>
     </row>
     <row r="15" spans="2:46">
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="29"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="29"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="34"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="34"/>
     </row>
     <row r="16" spans="2:46">
       <c r="I16" s="19"/>
@@ -4700,108 +5239,108 @@
       <c r="X16" s="13"/>
     </row>
     <row r="17" spans="2:25" ht="14.25" customHeight="1">
-      <c r="I17" s="24" t="s">
+      <c r="I17" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="26"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="31"/>
     </row>
     <row r="18" spans="2:25">
-      <c r="I18" s="27"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="29"/>
-      <c r="S18" s="24" t="s">
+      <c r="I18" s="32"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="34"/>
+      <c r="S18" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="25"/>
-      <c r="Y18" s="26"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="31"/>
     </row>
     <row r="19" spans="2:25">
-      <c r="S19" s="36"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="38"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="37"/>
     </row>
     <row r="20" spans="2:25" ht="14.25" customHeight="1">
-      <c r="S20" s="39"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="40"/>
-      <c r="X20" s="40"/>
-      <c r="Y20" s="41"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="39"/>
+      <c r="Y20" s="40"/>
     </row>
     <row r="21" spans="2:25">
-      <c r="I21" s="24" t="s">
+      <c r="I21" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="26"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="43"/>
-      <c r="X21" s="43"/>
-      <c r="Y21" s="44"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="31"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="43"/>
     </row>
     <row r="22" spans="2:25">
-      <c r="I22" s="27"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="29"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="34"/>
     </row>
     <row r="24" spans="2:25">
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
-      <c r="I24" s="24" t="s">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="31"/>
+      <c r="I24" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="26"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="31"/>
     </row>
     <row r="25" spans="2:25">
-      <c r="B25" s="27"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="29"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="29"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="34"/>
     </row>
     <row r="26" spans="2:25">
       <c r="I26" s="19"/>
@@ -4813,42 +5352,42 @@
       <c r="O26" s="21"/>
     </row>
     <row r="27" spans="2:25" ht="14.25" customHeight="1">
-      <c r="I27" s="24" t="s">
+      <c r="I27" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="26"/>
-      <c r="S27" s="24" t="s">
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="31"/>
+      <c r="S27" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="T27" s="25"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="30" t="s">
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="31"/>
+      <c r="W27" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="X27" s="31"/>
-      <c r="Y27" s="32"/>
+      <c r="X27" s="45"/>
+      <c r="Y27" s="46"/>
     </row>
     <row r="28" spans="2:25">
-      <c r="I28" s="27"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="29"/>
-      <c r="S28" s="27"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="35"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="34"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="47"/>
+      <c r="X28" s="48"/>
+      <c r="Y28" s="49"/>
     </row>
     <row r="29" spans="2:25">
       <c r="I29" s="19"/>
@@ -4860,24 +5399,24 @@
       <c r="O29" s="21"/>
     </row>
     <row r="30" spans="2:25">
-      <c r="I30" s="24" t="s">
+      <c r="I30" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="26"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="31"/>
     </row>
     <row r="31" spans="2:25">
-      <c r="I31" s="27"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="29"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="34"/>
     </row>
     <row r="32" spans="2:25">
       <c r="I32" s="19"/>
@@ -4889,37 +5428,27 @@
       <c r="O32" s="21"/>
     </row>
     <row r="33" spans="9:15">
-      <c r="I33" s="24" t="s">
+      <c r="I33" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="26"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="31"/>
     </row>
     <row r="34" spans="9:15">
-      <c r="I34" s="27"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="29"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="I30:O31"/>
-    <mergeCell ref="S18:Y21"/>
-    <mergeCell ref="AC10:AI13"/>
-    <mergeCell ref="AC4:AI7"/>
-    <mergeCell ref="I33:O34"/>
-    <mergeCell ref="I14:O15"/>
-    <mergeCell ref="I17:O18"/>
-    <mergeCell ref="I21:O22"/>
-    <mergeCell ref="I24:O25"/>
-    <mergeCell ref="I27:O28"/>
     <mergeCell ref="I2:O3"/>
     <mergeCell ref="S27:V28"/>
     <mergeCell ref="W27:Y28"/>
@@ -4935,6 +5464,16 @@
     <mergeCell ref="S14:Y15"/>
     <mergeCell ref="B24:E25"/>
     <mergeCell ref="B14:E15"/>
+    <mergeCell ref="I30:O31"/>
+    <mergeCell ref="S18:Y21"/>
+    <mergeCell ref="AC10:AI13"/>
+    <mergeCell ref="AC4:AI7"/>
+    <mergeCell ref="I33:O34"/>
+    <mergeCell ref="I14:O15"/>
+    <mergeCell ref="I17:O18"/>
+    <mergeCell ref="I21:O22"/>
+    <mergeCell ref="I24:O25"/>
+    <mergeCell ref="I27:O28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4960,390 +5499,390 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:34">
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77" t="s">
+      <c r="G1" s="75"/>
+      <c r="H1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="77"/>
+      <c r="I1" s="75"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="M1" s="77" t="s">
+      <c r="M1" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="T1" s="77" t="s">
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="T1" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77" t="s">
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
     <row r="2" spans="2:34">
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="55" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="85" t="s">
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="86"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="85" t="s">
+      <c r="K2" s="54"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="86"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="81" t="s">
+      <c r="R2" s="54"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="Y2" s="81"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="75" t="s">
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="AC2" s="76"/>
+      <c r="AC2" s="82"/>
     </row>
     <row r="3" spans="2:34">
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="59" t="s">
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="92"/>
-      <c r="H3" s="58" t="s">
+      <c r="G3" s="68"/>
+      <c r="H3" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="92"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="86"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="80"/>
-      <c r="X3" s="81"/>
-      <c r="Y3" s="81"/>
-      <c r="Z3" s="81"/>
-      <c r="AA3" s="82"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="76"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="54"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="84"/>
+      <c r="Z3" s="84"/>
+      <c r="AA3" s="85"/>
+      <c r="AB3" s="81"/>
+      <c r="AC3" s="82"/>
     </row>
     <row r="4" spans="2:34">
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="55" t="s">
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="85" t="s">
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="86"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="85" t="s">
+      <c r="K4" s="54"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="86"/>
-      <c r="T4" s="79"/>
-      <c r="U4" s="80"/>
-      <c r="V4" s="80"/>
-      <c r="W4" s="80"/>
-      <c r="X4" s="81" t="s">
+      <c r="R4" s="54"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="83"/>
+      <c r="V4" s="83"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="Y4" s="81"/>
-      <c r="Z4" s="81"/>
-      <c r="AA4" s="82"/>
-      <c r="AB4" s="75" t="s">
+      <c r="Y4" s="84"/>
+      <c r="Z4" s="84"/>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="AC4" s="76"/>
+      <c r="AC4" s="82"/>
     </row>
     <row r="5" spans="2:34">
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="59" t="s">
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="92"/>
-      <c r="H5" s="58" t="s">
+      <c r="G5" s="68"/>
+      <c r="H5" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="92"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="86"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="86"/>
-      <c r="T5" s="79"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
-      <c r="W5" s="80"/>
-      <c r="X5" s="81"/>
-      <c r="Y5" s="81"/>
-      <c r="Z5" s="81"/>
-      <c r="AA5" s="82"/>
-      <c r="AB5" s="75"/>
-      <c r="AC5" s="76"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="54"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="54"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="84"/>
+      <c r="Y5" s="84"/>
+      <c r="Z5" s="84"/>
+      <c r="AA5" s="85"/>
+      <c r="AB5" s="81"/>
+      <c r="AC5" s="82"/>
     </row>
     <row r="6" spans="2:34">
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="55" t="s">
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="85" t="s">
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="86"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="85" t="s">
+      <c r="K6" s="54"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="86"/>
-      <c r="T6" s="83" t="s">
+      <c r="R6" s="54"/>
+      <c r="T6" s="86" t="s">
         <v>138</v>
       </c>
-      <c r="U6" s="78"/>
-      <c r="V6" s="78"/>
-      <c r="W6" s="78"/>
-      <c r="X6" s="78"/>
-      <c r="Y6" s="78"/>
-      <c r="Z6" s="78"/>
-      <c r="AA6" s="78"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="74"/>
+      <c r="W6" s="74"/>
+      <c r="X6" s="74"/>
+      <c r="Y6" s="74"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="74"/>
     </row>
     <row r="7" spans="2:34">
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="59" t="s">
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="92"/>
-      <c r="H7" s="58" t="s">
+      <c r="G7" s="68"/>
+      <c r="H7" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="92"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="86"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="85"/>
-      <c r="R7" s="86"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="54"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="54"/>
     </row>
     <row r="8" spans="2:34">
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="55" t="s">
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="85" t="s">
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="86"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="85" t="s">
+      <c r="K8" s="54"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="R8" s="86"/>
+      <c r="R8" s="54"/>
     </row>
     <row r="9" spans="2:34">
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="93" t="s">
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="94"/>
-      <c r="H9" s="95" t="s">
+      <c r="G9" s="71"/>
+      <c r="H9" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="94"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="86"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="85"/>
-      <c r="R9" s="86"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="54"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="54"/>
     </row>
     <row r="10" spans="2:34">
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="55" t="s">
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="85" t="s">
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="86"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="85" t="s">
+      <c r="K10" s="54"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="R10" s="86"/>
+      <c r="R10" s="54"/>
     </row>
     <row r="11" spans="2:34">
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="86"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="85"/>
-      <c r="R11" s="86"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="54"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="54"/>
     </row>
     <row r="12" spans="2:34">
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="55" t="s">
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="85" t="s">
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="86"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="84"/>
-      <c r="O12" s="84"/>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="85" t="s">
+      <c r="K12" s="54"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="R12" s="86"/>
+      <c r="R12" s="54"/>
     </row>
     <row r="13" spans="2:34">
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="86"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="85"/>
-      <c r="R13" s="86"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="54"/>
     </row>
     <row r="14" spans="2:34">
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="55" t="s">
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="85" t="s">
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="86"/>
-      <c r="M14" s="78" t="s">
+      <c r="K14" s="54"/>
+      <c r="M14" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="N14" s="78"/>
-      <c r="O14" s="78"/>
-      <c r="P14" s="78"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
       <c r="S14" s="22" t="s">
         <v>140</v>
       </c>
@@ -5394,16 +5933,16 @@
       </c>
     </row>
     <row r="15" spans="2:34">
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="86"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="54"/>
       <c r="S15" s="23"/>
       <c r="T15" s="23"/>
       <c r="U15" s="23"/>
@@ -5440,62 +5979,62 @@
       </c>
     </row>
     <row r="16" spans="2:34">
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="55" t="s">
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="85" t="s">
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="86"/>
-      <c r="S16" s="87" t="s">
+      <c r="K16" s="54"/>
+      <c r="S16" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="T16" s="87"/>
-      <c r="U16" s="87"/>
-      <c r="V16" s="87"/>
-      <c r="W16" s="87"/>
-      <c r="X16" s="87"/>
-      <c r="Y16" s="87"/>
-      <c r="Z16" s="87"/>
-      <c r="AA16" s="87"/>
-      <c r="AB16" s="87"/>
-      <c r="AC16" s="87"/>
-      <c r="AD16" s="87"/>
-      <c r="AE16" s="87"/>
-      <c r="AF16" s="87"/>
-      <c r="AG16" s="87"/>
-      <c r="AH16" s="87"/>
+      <c r="T16" s="76"/>
+      <c r="U16" s="76"/>
+      <c r="V16" s="76"/>
+      <c r="W16" s="76"/>
+      <c r="X16" s="76"/>
+      <c r="Y16" s="76"/>
+      <c r="Z16" s="76"/>
+      <c r="AA16" s="76"/>
+      <c r="AB16" s="76"/>
+      <c r="AC16" s="76"/>
+      <c r="AD16" s="76"/>
+      <c r="AE16" s="76"/>
+      <c r="AF16" s="76"/>
+      <c r="AG16" s="76"/>
+      <c r="AH16" s="76"/>
     </row>
     <row r="17" spans="1:34">
-      <c r="B17" s="88"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="86"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="54"/>
     </row>
     <row r="18" spans="1:34">
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
     </row>
     <row r="19" spans="1:34">
       <c r="C19" s="1">
@@ -5548,530 +6087,530 @@
       </c>
     </row>
     <row r="20" spans="1:34">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="47" t="s">
+      <c r="B20" s="51"/>
+      <c r="C20" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="77">
         <v>0</v>
       </c>
-      <c r="E20" s="45">
+      <c r="E20" s="77">
         <v>0</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="77">
         <v>0</v>
       </c>
-      <c r="G20" s="45">
+      <c r="G20" s="77">
         <v>0</v>
       </c>
-      <c r="H20" s="45">
+      <c r="H20" s="77">
         <v>0</v>
       </c>
-      <c r="I20" s="45">
+      <c r="I20" s="77">
         <v>0</v>
       </c>
-      <c r="J20" s="45">
+      <c r="J20" s="77">
         <v>0</v>
       </c>
-      <c r="K20" s="45">
+      <c r="K20" s="77">
         <v>0</v>
       </c>
-      <c r="L20" s="45">
+      <c r="L20" s="77">
         <v>0</v>
       </c>
-      <c r="M20" s="45">
+      <c r="M20" s="77">
         <v>0</v>
       </c>
-      <c r="N20" s="45">
+      <c r="N20" s="77">
         <v>0</v>
       </c>
-      <c r="O20" s="45">
+      <c r="O20" s="77">
         <v>0</v>
       </c>
-      <c r="P20" s="45">
+      <c r="P20" s="77">
         <v>0</v>
       </c>
-      <c r="Q20" s="45">
+      <c r="Q20" s="77">
         <v>0</v>
       </c>
-      <c r="R20" s="45">
+      <c r="R20" s="77">
         <v>0</v>
       </c>
-      <c r="S20" s="47">
+      <c r="S20" s="79">
         <v>0</v>
       </c>
-      <c r="T20" s="45">
+      <c r="T20" s="77">
         <v>0</v>
       </c>
-      <c r="U20" s="45">
+      <c r="U20" s="77">
         <v>0</v>
       </c>
-      <c r="V20" s="45">
+      <c r="V20" s="77">
         <v>0</v>
       </c>
-      <c r="W20" s="45">
+      <c r="W20" s="77">
         <v>0</v>
       </c>
-      <c r="X20" s="45">
+      <c r="X20" s="77">
         <v>0</v>
       </c>
-      <c r="Y20" s="45">
+      <c r="Y20" s="77">
         <v>0</v>
       </c>
-      <c r="Z20" s="45">
+      <c r="Z20" s="77">
         <v>0</v>
       </c>
-      <c r="AA20" s="45">
+      <c r="AA20" s="77">
         <v>0</v>
       </c>
-      <c r="AB20" s="45">
+      <c r="AB20" s="77">
         <v>0</v>
       </c>
-      <c r="AC20" s="45">
+      <c r="AC20" s="77">
         <v>0</v>
       </c>
-      <c r="AD20" s="45" t="s">
+      <c r="AD20" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="AE20" s="45" t="s">
+      <c r="AE20" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="AF20" s="45" t="s">
+      <c r="AF20" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="AG20" s="45" t="s">
+      <c r="AG20" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="AH20" s="49" t="s">
+      <c r="AH20" s="99" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:34">
-      <c r="A21" s="51"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="46"/>
-      <c r="Z21" s="46"/>
-      <c r="AA21" s="46"/>
-      <c r="AB21" s="46"/>
-      <c r="AC21" s="46"/>
-      <c r="AD21" s="46"/>
-      <c r="AE21" s="46"/>
-      <c r="AF21" s="46"/>
-      <c r="AG21" s="46"/>
-      <c r="AH21" s="50"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="78"/>
+      <c r="S21" s="80"/>
+      <c r="T21" s="78"/>
+      <c r="U21" s="78"/>
+      <c r="V21" s="78"/>
+      <c r="W21" s="78"/>
+      <c r="X21" s="78"/>
+      <c r="Y21" s="78"/>
+      <c r="Z21" s="78"/>
+      <c r="AA21" s="78"/>
+      <c r="AB21" s="78"/>
+      <c r="AC21" s="78"/>
+      <c r="AD21" s="78"/>
+      <c r="AE21" s="78"/>
+      <c r="AF21" s="78"/>
+      <c r="AG21" s="78"/>
+      <c r="AH21" s="100"/>
     </row>
     <row r="22" spans="1:34">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="53" t="s">
+      <c r="B22" s="51"/>
+      <c r="C22" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="53"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="53"/>
-      <c r="V22" s="53"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="53"/>
-      <c r="Z22" s="53"/>
-      <c r="AA22" s="53"/>
-      <c r="AB22" s="53"/>
-      <c r="AC22" s="53"/>
-      <c r="AD22" s="53"/>
-      <c r="AE22" s="53"/>
-      <c r="AF22" s="53"/>
-      <c r="AG22" s="53"/>
-      <c r="AH22" s="53"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="52"/>
+      <c r="X22" s="52"/>
+      <c r="Y22" s="52"/>
+      <c r="Z22" s="52"/>
+      <c r="AA22" s="52"/>
+      <c r="AB22" s="52"/>
+      <c r="AC22" s="52"/>
+      <c r="AD22" s="52"/>
+      <c r="AE22" s="52"/>
+      <c r="AF22" s="52"/>
+      <c r="AG22" s="52"/>
+      <c r="AH22" s="52"/>
     </row>
     <row r="23" spans="1:34">
-      <c r="A23" s="51"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="53"/>
-      <c r="V23" s="53"/>
-      <c r="W23" s="53"/>
-      <c r="X23" s="53"/>
-      <c r="Y23" s="53"/>
-      <c r="Z23" s="53"/>
-      <c r="AA23" s="53"/>
-      <c r="AB23" s="53"/>
-      <c r="AC23" s="53"/>
-      <c r="AD23" s="53"/>
-      <c r="AE23" s="53"/>
-      <c r="AF23" s="53"/>
-      <c r="AG23" s="53"/>
-      <c r="AH23" s="53"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="52"/>
+      <c r="X23" s="52"/>
+      <c r="Y23" s="52"/>
+      <c r="Z23" s="52"/>
+      <c r="AA23" s="52"/>
+      <c r="AB23" s="52"/>
+      <c r="AC23" s="52"/>
+      <c r="AD23" s="52"/>
+      <c r="AE23" s="52"/>
+      <c r="AF23" s="52"/>
+      <c r="AG23" s="52"/>
+      <c r="AH23" s="52"/>
     </row>
     <row r="24" spans="1:34">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="52"/>
-      <c r="C24" s="53" t="s">
+      <c r="B24" s="51"/>
+      <c r="C24" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="53"/>
-      <c r="V24" s="53"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="53"/>
-      <c r="Y24" s="53"/>
-      <c r="Z24" s="53"/>
-      <c r="AA24" s="53"/>
-      <c r="AB24" s="53"/>
-      <c r="AC24" s="53"/>
-      <c r="AD24" s="53"/>
-      <c r="AE24" s="53"/>
-      <c r="AF24" s="53"/>
-      <c r="AG24" s="53"/>
-      <c r="AH24" s="53"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="52"/>
+      <c r="V24" s="52"/>
+      <c r="W24" s="52"/>
+      <c r="X24" s="52"/>
+      <c r="Y24" s="52"/>
+      <c r="Z24" s="52"/>
+      <c r="AA24" s="52"/>
+      <c r="AB24" s="52"/>
+      <c r="AC24" s="52"/>
+      <c r="AD24" s="52"/>
+      <c r="AE24" s="52"/>
+      <c r="AF24" s="52"/>
+      <c r="AG24" s="52"/>
+      <c r="AH24" s="52"/>
     </row>
     <row r="25" spans="1:34">
-      <c r="A25" s="51"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="53"/>
-      <c r="T25" s="53"/>
-      <c r="U25" s="53"/>
-      <c r="V25" s="53"/>
-      <c r="W25" s="53"/>
-      <c r="X25" s="53"/>
-      <c r="Y25" s="53"/>
-      <c r="Z25" s="53"/>
-      <c r="AA25" s="53"/>
-      <c r="AB25" s="53"/>
-      <c r="AC25" s="53"/>
-      <c r="AD25" s="53"/>
-      <c r="AE25" s="53"/>
-      <c r="AF25" s="53"/>
-      <c r="AG25" s="53"/>
-      <c r="AH25" s="53"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="52"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="52"/>
+      <c r="Y25" s="52"/>
+      <c r="Z25" s="52"/>
+      <c r="AA25" s="52"/>
+      <c r="AB25" s="52"/>
+      <c r="AC25" s="52"/>
+      <c r="AD25" s="52"/>
+      <c r="AE25" s="52"/>
+      <c r="AF25" s="52"/>
+      <c r="AG25" s="52"/>
+      <c r="AH25" s="52"/>
     </row>
     <row r="26" spans="1:34">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="47" t="s">
+      <c r="B26" s="51"/>
+      <c r="C26" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="64"/>
-      <c r="P26" s="64"/>
-      <c r="Q26" s="64"/>
-      <c r="R26" s="64"/>
-      <c r="S26" s="64"/>
-      <c r="T26" s="64"/>
-      <c r="U26" s="64"/>
-      <c r="V26" s="65"/>
-      <c r="W26" s="45">
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="89"/>
+      <c r="N26" s="89"/>
+      <c r="O26" s="89"/>
+      <c r="P26" s="89"/>
+      <c r="Q26" s="89"/>
+      <c r="R26" s="89"/>
+      <c r="S26" s="89"/>
+      <c r="T26" s="89"/>
+      <c r="U26" s="89"/>
+      <c r="V26" s="90"/>
+      <c r="W26" s="77">
         <v>0</v>
       </c>
-      <c r="X26" s="45">
+      <c r="X26" s="77">
         <v>0</v>
       </c>
-      <c r="Y26" s="45">
+      <c r="Y26" s="77">
         <v>0</v>
       </c>
-      <c r="Z26" s="45">
+      <c r="Z26" s="77">
         <v>0</v>
       </c>
-      <c r="AA26" s="45">
+      <c r="AA26" s="77">
         <v>0</v>
       </c>
-      <c r="AB26" s="45">
+      <c r="AB26" s="77">
         <v>0</v>
       </c>
-      <c r="AC26" s="45">
+      <c r="AC26" s="77">
         <v>0</v>
       </c>
-      <c r="AD26" s="45">
+      <c r="AD26" s="77">
         <v>0</v>
       </c>
-      <c r="AE26" s="45">
+      <c r="AE26" s="77">
         <v>0</v>
       </c>
-      <c r="AF26" s="45">
+      <c r="AF26" s="77">
         <v>0</v>
       </c>
-      <c r="AG26" s="45">
+      <c r="AG26" s="77">
         <v>0</v>
       </c>
-      <c r="AH26" s="49">
+      <c r="AH26" s="99">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:34">
-      <c r="A27" s="51"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="66"/>
-      <c r="R27" s="66"/>
-      <c r="S27" s="66"/>
-      <c r="T27" s="66"/>
-      <c r="U27" s="66"/>
-      <c r="V27" s="67"/>
-      <c r="W27" s="46"/>
-      <c r="X27" s="46"/>
-      <c r="Y27" s="46"/>
-      <c r="Z27" s="46"/>
-      <c r="AA27" s="46"/>
-      <c r="AB27" s="46"/>
-      <c r="AC27" s="46"/>
-      <c r="AD27" s="46"/>
-      <c r="AE27" s="46"/>
-      <c r="AF27" s="46"/>
-      <c r="AG27" s="46"/>
-      <c r="AH27" s="50"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="91"/>
+      <c r="L27" s="91"/>
+      <c r="M27" s="91"/>
+      <c r="N27" s="91"/>
+      <c r="O27" s="91"/>
+      <c r="P27" s="91"/>
+      <c r="Q27" s="91"/>
+      <c r="R27" s="91"/>
+      <c r="S27" s="91"/>
+      <c r="T27" s="91"/>
+      <c r="U27" s="91"/>
+      <c r="V27" s="92"/>
+      <c r="W27" s="78"/>
+      <c r="X27" s="78"/>
+      <c r="Y27" s="78"/>
+      <c r="Z27" s="78"/>
+      <c r="AA27" s="78"/>
+      <c r="AB27" s="78"/>
+      <c r="AC27" s="78"/>
+      <c r="AD27" s="78"/>
+      <c r="AE27" s="78"/>
+      <c r="AF27" s="78"/>
+      <c r="AG27" s="78"/>
+      <c r="AH27" s="100"/>
     </row>
     <row r="28" spans="1:34">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="74" t="s">
+      <c r="C28" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="74"/>
-      <c r="M28" s="74"/>
-      <c r="N28" s="74"/>
-      <c r="O28" s="74"/>
-      <c r="P28" s="74"/>
-      <c r="Q28" s="74"/>
-      <c r="R28" s="74"/>
-      <c r="S28" s="74"/>
-      <c r="T28" s="74"/>
-      <c r="U28" s="74"/>
-      <c r="V28" s="74"/>
-      <c r="W28" s="74"/>
-      <c r="X28" s="74"/>
-      <c r="Y28" s="74"/>
-      <c r="Z28" s="74"/>
-      <c r="AA28" s="74"/>
-      <c r="AB28" s="74"/>
-      <c r="AC28" s="74"/>
-      <c r="AD28" s="74"/>
-      <c r="AE28" s="74"/>
-      <c r="AF28" s="74"/>
-      <c r="AG28" s="74"/>
-      <c r="AH28" s="74"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="98"/>
+      <c r="N28" s="98"/>
+      <c r="O28" s="98"/>
+      <c r="P28" s="98"/>
+      <c r="Q28" s="98"/>
+      <c r="R28" s="98"/>
+      <c r="S28" s="98"/>
+      <c r="T28" s="98"/>
+      <c r="U28" s="98"/>
+      <c r="V28" s="98"/>
+      <c r="W28" s="98"/>
+      <c r="X28" s="98"/>
+      <c r="Y28" s="98"/>
+      <c r="Z28" s="98"/>
+      <c r="AA28" s="98"/>
+      <c r="AB28" s="98"/>
+      <c r="AC28" s="98"/>
+      <c r="AD28" s="98"/>
+      <c r="AE28" s="98"/>
+      <c r="AF28" s="98"/>
+      <c r="AG28" s="98"/>
+      <c r="AH28" s="98"/>
     </row>
     <row r="29" spans="1:34">
       <c r="C29" s="1">
         <v>31</v>
       </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="88"/>
       <c r="J29" s="1">
         <v>0</v>
       </c>
       <c r="K29" s="1">
         <v>15</v>
       </c>
-      <c r="L29" s="63"/>
-      <c r="M29" s="63"/>
+      <c r="L29" s="88"/>
+      <c r="M29" s="88"/>
       <c r="N29" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:34">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="54" t="s">
+      <c r="B30" s="51"/>
+      <c r="C30" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="53" t="s">
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
     </row>
     <row r="31" spans="1:34">
-      <c r="A31" s="51"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="96"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="96"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
     </row>
     <row r="32" spans="1:34">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="52"/>
-      <c r="C32" s="54" t="s">
+      <c r="B32" s="51"/>
+      <c r="C32" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="53" t="s">
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="95"/>
+      <c r="K32" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
     </row>
     <row r="33" spans="1:39">
-      <c r="A33" s="51"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="96"/>
+      <c r="J33" s="97"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
     </row>
     <row r="35" spans="1:39">
       <c r="C35" s="1">
@@ -6116,160 +6655,160 @@
       </c>
     </row>
     <row r="36" spans="1:39">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="53" t="s">
+      <c r="B36" s="51"/>
+      <c r="C36" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="H36" s="54" t="s">
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="H36" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="56"/>
-      <c r="N36" s="56"/>
-      <c r="O36" s="57"/>
-      <c r="P36" s="54" t="s">
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="94"/>
+      <c r="M36" s="94"/>
+      <c r="N36" s="94"/>
+      <c r="O36" s="95"/>
+      <c r="P36" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="Q36" s="55"/>
-      <c r="R36" s="55"/>
-      <c r="S36" s="55"/>
-      <c r="T36" s="56"/>
-      <c r="U36" s="56"/>
-      <c r="V36" s="56"/>
-      <c r="W36" s="57"/>
-      <c r="X36" s="68" t="s">
+      <c r="Q36" s="61"/>
+      <c r="R36" s="61"/>
+      <c r="S36" s="61"/>
+      <c r="T36" s="94"/>
+      <c r="U36" s="94"/>
+      <c r="V36" s="94"/>
+      <c r="W36" s="95"/>
+      <c r="X36" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="Y36" s="69"/>
-      <c r="Z36" s="70"/>
+      <c r="Y36" s="56"/>
+      <c r="Z36" s="57"/>
     </row>
     <row r="37" spans="1:39">
-      <c r="A37" s="51"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
-      <c r="L37" s="60"/>
-      <c r="M37" s="60"/>
-      <c r="N37" s="60"/>
-      <c r="O37" s="61"/>
-      <c r="P37" s="58"/>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="59"/>
-      <c r="S37" s="59"/>
-      <c r="T37" s="60"/>
-      <c r="U37" s="60"/>
-      <c r="V37" s="60"/>
-      <c r="W37" s="61"/>
-      <c r="X37" s="71"/>
-      <c r="Y37" s="72"/>
-      <c r="Z37" s="73"/>
+      <c r="A37" s="50"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="96"/>
+      <c r="M37" s="96"/>
+      <c r="N37" s="96"/>
+      <c r="O37" s="97"/>
+      <c r="P37" s="73"/>
+      <c r="Q37" s="67"/>
+      <c r="R37" s="67"/>
+      <c r="S37" s="67"/>
+      <c r="T37" s="96"/>
+      <c r="U37" s="96"/>
+      <c r="V37" s="96"/>
+      <c r="W37" s="97"/>
+      <c r="X37" s="58"/>
+      <c r="Y37" s="59"/>
+      <c r="Z37" s="60"/>
     </row>
     <row r="38" spans="1:39">
-      <c r="A38" s="51" t="s">
+      <c r="A38" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="52"/>
-      <c r="C38" s="53" t="s">
+      <c r="B38" s="51"/>
+      <c r="C38" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="H38" s="54" t="s">
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="H38" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="56"/>
-      <c r="M38" s="56"/>
-      <c r="N38" s="56"/>
-      <c r="O38" s="57"/>
-      <c r="P38" s="54" t="s">
+      <c r="I38" s="61"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="94"/>
+      <c r="M38" s="94"/>
+      <c r="N38" s="94"/>
+      <c r="O38" s="95"/>
+      <c r="P38" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="Q38" s="55"/>
-      <c r="R38" s="55"/>
-      <c r="S38" s="55"/>
-      <c r="T38" s="56"/>
-      <c r="U38" s="56"/>
-      <c r="V38" s="56"/>
-      <c r="W38" s="57"/>
-      <c r="X38" s="68" t="s">
+      <c r="Q38" s="61"/>
+      <c r="R38" s="61"/>
+      <c r="S38" s="61"/>
+      <c r="T38" s="94"/>
+      <c r="U38" s="94"/>
+      <c r="V38" s="94"/>
+      <c r="W38" s="95"/>
+      <c r="X38" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="Y38" s="69"/>
-      <c r="Z38" s="70"/>
+      <c r="Y38" s="56"/>
+      <c r="Z38" s="57"/>
     </row>
     <row r="39" spans="1:39">
-      <c r="A39" s="51"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="60"/>
-      <c r="M39" s="60"/>
-      <c r="N39" s="60"/>
-      <c r="O39" s="61"/>
-      <c r="P39" s="58"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="59"/>
-      <c r="S39" s="59"/>
-      <c r="T39" s="60"/>
-      <c r="U39" s="60"/>
-      <c r="V39" s="60"/>
-      <c r="W39" s="61"/>
-      <c r="X39" s="71"/>
-      <c r="Y39" s="72"/>
-      <c r="Z39" s="73"/>
+      <c r="A39" s="50"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="67"/>
+      <c r="L39" s="96"/>
+      <c r="M39" s="96"/>
+      <c r="N39" s="96"/>
+      <c r="O39" s="97"/>
+      <c r="P39" s="73"/>
+      <c r="Q39" s="67"/>
+      <c r="R39" s="67"/>
+      <c r="S39" s="67"/>
+      <c r="T39" s="96"/>
+      <c r="U39" s="96"/>
+      <c r="V39" s="96"/>
+      <c r="W39" s="97"/>
+      <c r="X39" s="58"/>
+      <c r="Y39" s="59"/>
+      <c r="Z39" s="60"/>
     </row>
     <row r="40" spans="1:39">
-      <c r="C40" s="62" t="s">
+      <c r="C40" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="62"/>
-      <c r="O40" s="62"/>
-      <c r="P40" s="62"/>
-      <c r="Q40" s="62"/>
-      <c r="R40" s="62"/>
-      <c r="S40" s="62"/>
-      <c r="T40" s="62"/>
-      <c r="U40" s="62"/>
-      <c r="V40" s="62"/>
-      <c r="W40" s="62"/>
-      <c r="X40" s="62"/>
-      <c r="Y40" s="62"/>
-      <c r="Z40" s="62"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="87"/>
+      <c r="H40" s="87"/>
+      <c r="I40" s="87"/>
+      <c r="J40" s="87"/>
+      <c r="K40" s="87"/>
+      <c r="L40" s="87"/>
+      <c r="M40" s="87"/>
+      <c r="N40" s="87"/>
+      <c r="O40" s="87"/>
+      <c r="P40" s="87"/>
+      <c r="Q40" s="87"/>
+      <c r="R40" s="87"/>
+      <c r="S40" s="87"/>
+      <c r="T40" s="87"/>
+      <c r="U40" s="87"/>
+      <c r="V40" s="87"/>
+      <c r="W40" s="87"/>
+      <c r="X40" s="87"/>
+      <c r="Y40" s="87"/>
+      <c r="Z40" s="87"/>
     </row>
     <row r="41" spans="1:39">
       <c r="C41" s="4"/>
@@ -6341,6 +6880,113 @@
     </row>
   </sheetData>
   <mergeCells count="131">
+    <mergeCell ref="AB20:AB21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="U20:U21"/>
+    <mergeCell ref="AH20:AH21"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="A38:B39"/>
+    <mergeCell ref="C38:F39"/>
+    <mergeCell ref="H38:O39"/>
+    <mergeCell ref="P36:W37"/>
+    <mergeCell ref="P38:W39"/>
+    <mergeCell ref="AH26:AH27"/>
+    <mergeCell ref="AA26:AA27"/>
+    <mergeCell ref="AB26:AB27"/>
+    <mergeCell ref="AC26:AC27"/>
+    <mergeCell ref="AD26:AD27"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="A36:B37"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:AH23"/>
+    <mergeCell ref="AD20:AD21"/>
+    <mergeCell ref="AE20:AE21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="C40:Z40"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="AF26:AF27"/>
+    <mergeCell ref="AG26:AG27"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="Z26:Z27"/>
+    <mergeCell ref="AE26:AE27"/>
+    <mergeCell ref="C26:V27"/>
+    <mergeCell ref="C32:J33"/>
+    <mergeCell ref="C36:F37"/>
+    <mergeCell ref="H36:O37"/>
+    <mergeCell ref="K32:N33"/>
+    <mergeCell ref="X36:Z37"/>
+    <mergeCell ref="C28:AH28"/>
+    <mergeCell ref="C30:J31"/>
+    <mergeCell ref="K30:N31"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="Z20:Z21"/>
+    <mergeCell ref="AA20:AA21"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="X20:X21"/>
+    <mergeCell ref="Y20:Y21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="AB2:AC3"/>
+    <mergeCell ref="AB4:AC5"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="T2:W3"/>
+    <mergeCell ref="X2:AA3"/>
+    <mergeCell ref="T4:W5"/>
+    <mergeCell ref="X4:AA5"/>
+    <mergeCell ref="T6:AA6"/>
+    <mergeCell ref="M10:P11"/>
+    <mergeCell ref="M12:P13"/>
+    <mergeCell ref="Q2:R3"/>
+    <mergeCell ref="Q12:R13"/>
+    <mergeCell ref="M2:P3"/>
+    <mergeCell ref="M4:P5"/>
+    <mergeCell ref="M6:P7"/>
+    <mergeCell ref="S16:AH16"/>
+    <mergeCell ref="AF20:AF21"/>
+    <mergeCell ref="AG20:AG21"/>
+    <mergeCell ref="AC20:AC21"/>
+    <mergeCell ref="V20:V21"/>
+    <mergeCell ref="B14:E15"/>
+    <mergeCell ref="F14:I15"/>
+    <mergeCell ref="Q4:R5"/>
+    <mergeCell ref="B4:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B12:E13"/>
+    <mergeCell ref="F12:I13"/>
+    <mergeCell ref="Q6:R7"/>
+    <mergeCell ref="Q8:R9"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="A24:B25"/>
     <mergeCell ref="C24:AH25"/>
     <mergeCell ref="J4:K5"/>
@@ -6365,113 +7011,6 @@
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="B16:E17"/>
     <mergeCell ref="F16:I17"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B12:E13"/>
-    <mergeCell ref="F12:I13"/>
-    <mergeCell ref="Q6:R7"/>
-    <mergeCell ref="Q8:R9"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="S16:AH16"/>
-    <mergeCell ref="AF20:AF21"/>
-    <mergeCell ref="AG20:AG21"/>
-    <mergeCell ref="AC20:AC21"/>
-    <mergeCell ref="V20:V21"/>
-    <mergeCell ref="B14:E15"/>
-    <mergeCell ref="F14:I15"/>
-    <mergeCell ref="Q4:R5"/>
-    <mergeCell ref="B4:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="AB2:AC3"/>
-    <mergeCell ref="AB4:AC5"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="T2:W3"/>
-    <mergeCell ref="X2:AA3"/>
-    <mergeCell ref="T4:W5"/>
-    <mergeCell ref="X4:AA5"/>
-    <mergeCell ref="T6:AA6"/>
-    <mergeCell ref="M10:P11"/>
-    <mergeCell ref="M12:P13"/>
-    <mergeCell ref="Q2:R3"/>
-    <mergeCell ref="Q12:R13"/>
-    <mergeCell ref="M2:P3"/>
-    <mergeCell ref="M4:P5"/>
-    <mergeCell ref="M6:P7"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="Z20:Z21"/>
-    <mergeCell ref="AA20:AA21"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="X20:X21"/>
-    <mergeCell ref="Y20:Y21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="C40:Z40"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="AF26:AF27"/>
-    <mergeCell ref="AG26:AG27"/>
-    <mergeCell ref="W26:W27"/>
-    <mergeCell ref="X26:X27"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="Z26:Z27"/>
-    <mergeCell ref="AE26:AE27"/>
-    <mergeCell ref="C26:V27"/>
-    <mergeCell ref="C32:J33"/>
-    <mergeCell ref="C36:F37"/>
-    <mergeCell ref="H36:O37"/>
-    <mergeCell ref="K32:N33"/>
-    <mergeCell ref="X36:Z37"/>
-    <mergeCell ref="C28:AH28"/>
-    <mergeCell ref="C30:J31"/>
-    <mergeCell ref="K30:N31"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="AB20:AB21"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="U20:U21"/>
-    <mergeCell ref="AH20:AH21"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="A38:B39"/>
-    <mergeCell ref="C38:F39"/>
-    <mergeCell ref="H38:O39"/>
-    <mergeCell ref="P36:W37"/>
-    <mergeCell ref="P38:W39"/>
-    <mergeCell ref="AH26:AH27"/>
-    <mergeCell ref="AA26:AA27"/>
-    <mergeCell ref="AB26:AB27"/>
-    <mergeCell ref="AC26:AC27"/>
-    <mergeCell ref="AD26:AD27"/>
-    <mergeCell ref="A32:B33"/>
-    <mergeCell ref="A36:B37"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:AH23"/>
-    <mergeCell ref="AD20:AD21"/>
-    <mergeCell ref="AE20:AE21"/>
-    <mergeCell ref="O20:O21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6546,124 +7085,124 @@
       </c>
     </row>
     <row r="3" spans="2:33">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="122"/>
-      <c r="O3" s="45" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="P3" s="54" t="s">
+      <c r="P3" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="Q3" s="122"/>
+      <c r="Q3" s="104"/>
     </row>
     <row r="4" spans="2:33">
-      <c r="B4" s="58"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="123"/>
-      <c r="Q4" s="110"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="105"/>
     </row>
     <row r="6" spans="2:33" s="18" customFormat="1">
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="101" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="117"/>
-      <c r="M6" s="117"/>
-      <c r="N6" s="117"/>
-      <c r="O6" s="117"/>
-      <c r="P6" s="117"/>
-      <c r="Q6" s="118"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="103"/>
     </row>
     <row r="9" spans="2:33">
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="135" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96" t="s">
+      <c r="C9" s="135"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96" t="s">
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="135" t="s">
         <v>64</v>
       </c>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96" t="s">
+      <c r="K9" s="135"/>
+      <c r="L9" s="135"/>
+      <c r="M9" s="135"/>
+      <c r="N9" s="135" t="s">
         <v>65</v>
       </c>
-      <c r="O9" s="96"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="96"/>
-      <c r="R9" s="96" t="s">
+      <c r="O9" s="135"/>
+      <c r="P9" s="135"/>
+      <c r="Q9" s="135"/>
+      <c r="R9" s="135" t="s">
         <v>66</v>
       </c>
-      <c r="S9" s="96"/>
-      <c r="T9" s="96"/>
-      <c r="U9" s="96"/>
-      <c r="V9" s="96" t="s">
+      <c r="S9" s="135"/>
+      <c r="T9" s="135"/>
+      <c r="U9" s="135"/>
+      <c r="V9" s="135" t="s">
         <v>67</v>
       </c>
-      <c r="W9" s="96"/>
-      <c r="X9" s="96"/>
-      <c r="Y9" s="96"/>
-      <c r="Z9" s="96" t="s">
+      <c r="W9" s="135"/>
+      <c r="X9" s="135"/>
+      <c r="Y9" s="135"/>
+      <c r="Z9" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="AA9" s="96"/>
-      <c r="AB9" s="96"/>
-      <c r="AC9" s="96"/>
-      <c r="AD9" s="96" t="s">
+      <c r="AA9" s="135"/>
+      <c r="AB9" s="135"/>
+      <c r="AC9" s="135"/>
+      <c r="AD9" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="AE9" s="96"/>
-      <c r="AF9" s="96"/>
-      <c r="AG9" s="96"/>
+      <c r="AE9" s="135"/>
+      <c r="AF9" s="135"/>
+      <c r="AG9" s="135"/>
     </row>
     <row r="10" spans="2:33">
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="49"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="99"/>
       <c r="F10" s="7"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -6672,14 +7211,14 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="103"/>
-      <c r="P10" s="103"/>
-      <c r="Q10" s="103"/>
-      <c r="R10" s="95"/>
-      <c r="S10" s="103"/>
-      <c r="T10" s="103"/>
-      <c r="U10" s="103"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="122"/>
+      <c r="P10" s="122"/>
+      <c r="Q10" s="122"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="122"/>
+      <c r="T10" s="122"/>
+      <c r="U10" s="122"/>
       <c r="V10" s="7"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -6694,50 +7233,50 @@
       <c r="AG10" s="3"/>
     </row>
     <row r="11" spans="2:33">
-      <c r="B11" s="97"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="95" t="s">
+      <c r="B11" s="110"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="103"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="104"/>
-      <c r="N11" s="95" t="s">
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="122"/>
+      <c r="M11" s="123"/>
+      <c r="N11" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="O11" s="103"/>
-      <c r="P11" s="103"/>
-      <c r="Q11" s="103"/>
-      <c r="R11" s="103"/>
-      <c r="S11" s="103"/>
-      <c r="T11" s="103"/>
-      <c r="U11" s="105"/>
-      <c r="V11" s="103"/>
-      <c r="W11" s="103"/>
-      <c r="X11" s="103"/>
-      <c r="Y11" s="104"/>
-      <c r="Z11" s="106" t="s">
+      <c r="O11" s="122"/>
+      <c r="P11" s="122"/>
+      <c r="Q11" s="122"/>
+      <c r="R11" s="122"/>
+      <c r="S11" s="122"/>
+      <c r="T11" s="122"/>
+      <c r="U11" s="142"/>
+      <c r="V11" s="122"/>
+      <c r="W11" s="122"/>
+      <c r="X11" s="122"/>
+      <c r="Y11" s="123"/>
+      <c r="Z11" s="143" t="s">
         <v>71</v>
       </c>
-      <c r="AA11" s="107"/>
-      <c r="AB11" s="107"/>
-      <c r="AC11" s="107"/>
-      <c r="AD11" s="107"/>
-      <c r="AE11" s="107"/>
-      <c r="AF11" s="107"/>
-      <c r="AG11" s="108"/>
+      <c r="AA11" s="144"/>
+      <c r="AB11" s="144"/>
+      <c r="AC11" s="144"/>
+      <c r="AD11" s="144"/>
+      <c r="AE11" s="144"/>
+      <c r="AF11" s="144"/>
+      <c r="AG11" s="145"/>
     </row>
     <row r="12" spans="2:33">
-      <c r="B12" s="100"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="102"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="141"/>
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -6746,14 +7285,14 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="10"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="109"/>
-      <c r="P12" s="109"/>
-      <c r="Q12" s="109"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="109"/>
-      <c r="T12" s="109"/>
-      <c r="U12" s="110"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="146"/>
+      <c r="P12" s="146"/>
+      <c r="Q12" s="146"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="146"/>
+      <c r="T12" s="146"/>
+      <c r="U12" s="105"/>
       <c r="V12" s="8"/>
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
@@ -6818,76 +7357,76 @@
       </c>
     </row>
     <row r="16" spans="2:33">
-      <c r="E16" s="111" t="s">
+      <c r="E16" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="111" t="s">
+      <c r="F16" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="111">
+      <c r="G16" s="107">
         <v>0</v>
       </c>
-      <c r="H16" s="111" t="s">
+      <c r="H16" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="47" t="s">
+      <c r="I16" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="111" t="s">
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="N16" s="47" t="s">
+      <c r="N16" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="O16" s="65"/>
-      <c r="P16" s="111" t="s">
+      <c r="O16" s="90"/>
+      <c r="P16" s="107" t="s">
         <v>77</v>
       </c>
-      <c r="Q16" s="47" t="s">
+      <c r="Q16" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="R16" s="64"/>
-      <c r="S16" s="64"/>
-      <c r="T16" s="65"/>
+      <c r="R16" s="89"/>
+      <c r="S16" s="89"/>
+      <c r="T16" s="90"/>
     </row>
     <row r="17" spans="2:33">
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="114"/>
-      <c r="M17" s="112"/>
-      <c r="N17" s="97"/>
-      <c r="O17" s="114"/>
-      <c r="P17" s="112"/>
-      <c r="Q17" s="97"/>
-      <c r="R17" s="115"/>
-      <c r="S17" s="115"/>
-      <c r="T17" s="114"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="111"/>
+      <c r="M17" s="108"/>
+      <c r="N17" s="110"/>
+      <c r="O17" s="111"/>
+      <c r="P17" s="108"/>
+      <c r="Q17" s="110"/>
+      <c r="R17" s="112"/>
+      <c r="S17" s="112"/>
+      <c r="T17" s="111"/>
     </row>
     <row r="18" spans="2:33">
-      <c r="E18" s="113"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="113"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="113"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="66"/>
-      <c r="S18" s="66"/>
-      <c r="T18" s="67"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="109"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="109"/>
+      <c r="Q18" s="80"/>
+      <c r="R18" s="91"/>
+      <c r="S18" s="91"/>
+      <c r="T18" s="92"/>
     </row>
     <row r="19" spans="2:33">
       <c r="B19" s="15"/>
@@ -6956,98 +7495,98 @@
       <c r="AG19" s="12"/>
     </row>
     <row r="20" spans="2:33">
-      <c r="B20" s="116" t="s">
+      <c r="B20" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="117"/>
-      <c r="K20" s="117"/>
-      <c r="L20" s="117"/>
-      <c r="M20" s="117"/>
-      <c r="N20" s="117"/>
-      <c r="O20" s="117"/>
-      <c r="P20" s="117"/>
-      <c r="Q20" s="117"/>
-      <c r="R20" s="117"/>
-      <c r="S20" s="117"/>
-      <c r="T20" s="117"/>
-      <c r="U20" s="117"/>
-      <c r="V20" s="117"/>
-      <c r="W20" s="117"/>
-      <c r="X20" s="117"/>
-      <c r="Y20" s="117"/>
-      <c r="Z20" s="117"/>
-      <c r="AA20" s="117"/>
-      <c r="AB20" s="117"/>
-      <c r="AC20" s="117"/>
-      <c r="AD20" s="117"/>
-      <c r="AE20" s="117"/>
-      <c r="AF20" s="117"/>
-      <c r="AG20" s="118"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="102"/>
+      <c r="O20" s="102"/>
+      <c r="P20" s="102"/>
+      <c r="Q20" s="102"/>
+      <c r="R20" s="102"/>
+      <c r="S20" s="102"/>
+      <c r="T20" s="102"/>
+      <c r="U20" s="102"/>
+      <c r="V20" s="102"/>
+      <c r="W20" s="102"/>
+      <c r="X20" s="102"/>
+      <c r="Y20" s="102"/>
+      <c r="Z20" s="102"/>
+      <c r="AA20" s="102"/>
+      <c r="AB20" s="102"/>
+      <c r="AC20" s="102"/>
+      <c r="AD20" s="102"/>
+      <c r="AE20" s="102"/>
+      <c r="AF20" s="102"/>
+      <c r="AG20" s="103"/>
     </row>
     <row r="23" spans="2:33">
-      <c r="B23" s="96" t="s">
+      <c r="B23" s="135" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96" t="s">
+      <c r="C23" s="135"/>
+      <c r="D23" s="135"/>
+      <c r="E23" s="135"/>
+      <c r="F23" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="96" t="s">
+      <c r="G23" s="135"/>
+      <c r="H23" s="135"/>
+      <c r="I23" s="135"/>
+      <c r="J23" s="135" t="s">
         <v>64</v>
       </c>
-      <c r="K23" s="96"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="96" t="s">
+      <c r="K23" s="135"/>
+      <c r="L23" s="135"/>
+      <c r="M23" s="135"/>
+      <c r="N23" s="135" t="s">
         <v>65</v>
       </c>
-      <c r="O23" s="96"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="96"/>
-      <c r="R23" s="96" t="s">
+      <c r="O23" s="135"/>
+      <c r="P23" s="135"/>
+      <c r="Q23" s="135"/>
+      <c r="R23" s="135" t="s">
         <v>66</v>
       </c>
-      <c r="S23" s="96"/>
-      <c r="T23" s="96"/>
-      <c r="U23" s="96"/>
-      <c r="V23" s="96" t="s">
+      <c r="S23" s="135"/>
+      <c r="T23" s="135"/>
+      <c r="U23" s="135"/>
+      <c r="V23" s="135" t="s">
         <v>67</v>
       </c>
-      <c r="W23" s="96"/>
-      <c r="X23" s="96"/>
-      <c r="Y23" s="96"/>
-      <c r="Z23" s="96" t="s">
+      <c r="W23" s="135"/>
+      <c r="X23" s="135"/>
+      <c r="Y23" s="135"/>
+      <c r="Z23" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="AA23" s="96"/>
-      <c r="AB23" s="96"/>
-      <c r="AC23" s="96"/>
-      <c r="AD23" s="96" t="s">
+      <c r="AA23" s="135"/>
+      <c r="AB23" s="135"/>
+      <c r="AC23" s="135"/>
+      <c r="AD23" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="AE23" s="96"/>
-      <c r="AF23" s="96"/>
-      <c r="AG23" s="96"/>
+      <c r="AE23" s="135"/>
+      <c r="AF23" s="135"/>
+      <c r="AG23" s="135"/>
     </row>
     <row r="24" spans="2:33">
-      <c r="B24" s="119" t="s">
+      <c r="B24" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="49"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="99"/>
       <c r="F24" s="7"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -7056,14 +7595,14 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="103"/>
-      <c r="P24" s="103"/>
-      <c r="Q24" s="103"/>
-      <c r="R24" s="95"/>
-      <c r="S24" s="103"/>
-      <c r="T24" s="103"/>
-      <c r="U24" s="103"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="122"/>
+      <c r="P24" s="122"/>
+      <c r="Q24" s="122"/>
+      <c r="R24" s="72"/>
+      <c r="S24" s="122"/>
+      <c r="T24" s="122"/>
+      <c r="U24" s="122"/>
       <c r="V24" s="7"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -7078,50 +7617,50 @@
       <c r="AG24" s="3"/>
     </row>
     <row r="25" spans="2:33">
-      <c r="B25" s="97"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="95" t="s">
+      <c r="B25" s="110"/>
+      <c r="C25" s="137"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="103"/>
-      <c r="K25" s="103"/>
-      <c r="L25" s="103"/>
-      <c r="M25" s="104"/>
-      <c r="N25" s="95" t="s">
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="122"/>
+      <c r="K25" s="122"/>
+      <c r="L25" s="122"/>
+      <c r="M25" s="123"/>
+      <c r="N25" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="O25" s="103"/>
-      <c r="P25" s="103"/>
-      <c r="Q25" s="103"/>
-      <c r="R25" s="103"/>
-      <c r="S25" s="103"/>
-      <c r="T25" s="103"/>
-      <c r="U25" s="105"/>
-      <c r="V25" s="103"/>
-      <c r="W25" s="103"/>
-      <c r="X25" s="103"/>
-      <c r="Y25" s="104"/>
-      <c r="Z25" s="106" t="s">
+      <c r="O25" s="122"/>
+      <c r="P25" s="122"/>
+      <c r="Q25" s="122"/>
+      <c r="R25" s="122"/>
+      <c r="S25" s="122"/>
+      <c r="T25" s="122"/>
+      <c r="U25" s="142"/>
+      <c r="V25" s="122"/>
+      <c r="W25" s="122"/>
+      <c r="X25" s="122"/>
+      <c r="Y25" s="123"/>
+      <c r="Z25" s="143" t="s">
         <v>71</v>
       </c>
-      <c r="AA25" s="107"/>
-      <c r="AB25" s="107"/>
-      <c r="AC25" s="107"/>
-      <c r="AD25" s="107"/>
-      <c r="AE25" s="107"/>
-      <c r="AF25" s="107"/>
-      <c r="AG25" s="108"/>
+      <c r="AA25" s="144"/>
+      <c r="AB25" s="144"/>
+      <c r="AC25" s="144"/>
+      <c r="AD25" s="144"/>
+      <c r="AE25" s="144"/>
+      <c r="AF25" s="144"/>
+      <c r="AG25" s="145"/>
     </row>
     <row r="26" spans="2:33">
-      <c r="B26" s="100"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="102"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="141"/>
       <c r="F26" s="8"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -7130,14 +7669,14 @@
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="10"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="109"/>
-      <c r="P26" s="109"/>
-      <c r="Q26" s="109"/>
-      <c r="R26" s="58"/>
-      <c r="S26" s="109"/>
-      <c r="T26" s="109"/>
-      <c r="U26" s="110"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="146"/>
+      <c r="P26" s="146"/>
+      <c r="Q26" s="146"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="146"/>
+      <c r="T26" s="146"/>
+      <c r="U26" s="105"/>
       <c r="V26" s="8"/>
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
@@ -7202,76 +7741,76 @@
       </c>
     </row>
     <row r="30" spans="2:33">
-      <c r="E30" s="111" t="s">
+      <c r="E30" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="F30" s="120" t="s">
+      <c r="F30" s="136" t="s">
         <v>86</v>
       </c>
-      <c r="G30" s="111">
+      <c r="G30" s="107">
         <v>0</v>
       </c>
-      <c r="H30" s="111" t="s">
+      <c r="H30" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="47" t="s">
+      <c r="I30" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="111" t="s">
+      <c r="J30" s="89"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="90"/>
+      <c r="M30" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="N30" s="47" t="s">
+      <c r="N30" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="O30" s="65"/>
-      <c r="P30" s="111" t="s">
+      <c r="O30" s="90"/>
+      <c r="P30" s="107" t="s">
         <v>87</v>
       </c>
-      <c r="Q30" s="47" t="s">
+      <c r="Q30" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="R30" s="64"/>
-      <c r="S30" s="64"/>
-      <c r="T30" s="65"/>
+      <c r="R30" s="89"/>
+      <c r="S30" s="89"/>
+      <c r="T30" s="90"/>
     </row>
     <row r="31" spans="2:33">
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="112"/>
-      <c r="H31" s="112"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="115"/>
-      <c r="K31" s="115"/>
-      <c r="L31" s="114"/>
-      <c r="M31" s="112"/>
-      <c r="N31" s="97"/>
-      <c r="O31" s="114"/>
-      <c r="P31" s="112"/>
-      <c r="Q31" s="97"/>
-      <c r="R31" s="115"/>
-      <c r="S31" s="115"/>
-      <c r="T31" s="114"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="108"/>
+      <c r="G31" s="108"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="110"/>
+      <c r="J31" s="112"/>
+      <c r="K31" s="112"/>
+      <c r="L31" s="111"/>
+      <c r="M31" s="108"/>
+      <c r="N31" s="110"/>
+      <c r="O31" s="111"/>
+      <c r="P31" s="108"/>
+      <c r="Q31" s="110"/>
+      <c r="R31" s="112"/>
+      <c r="S31" s="112"/>
+      <c r="T31" s="111"/>
     </row>
     <row r="32" spans="2:33">
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="67"/>
-      <c r="M32" s="113"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="67"/>
-      <c r="P32" s="113"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="66"/>
-      <c r="S32" s="66"/>
-      <c r="T32" s="67"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="109"/>
+      <c r="H32" s="109"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="91"/>
+      <c r="K32" s="91"/>
+      <c r="L32" s="92"/>
+      <c r="M32" s="109"/>
+      <c r="N32" s="80"/>
+      <c r="O32" s="92"/>
+      <c r="P32" s="109"/>
+      <c r="Q32" s="80"/>
+      <c r="R32" s="91"/>
+      <c r="S32" s="91"/>
+      <c r="T32" s="92"/>
     </row>
     <row r="33" spans="2:33">
       <c r="B33" s="15"/>
@@ -7308,102 +7847,102 @@
       <c r="AG33" s="12"/>
     </row>
     <row r="34" spans="2:33">
-      <c r="B34" s="116" t="s">
+      <c r="B34" s="101" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="117"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="117"/>
-      <c r="I34" s="117"/>
-      <c r="J34" s="117"/>
-      <c r="K34" s="117"/>
-      <c r="L34" s="117"/>
-      <c r="M34" s="117"/>
-      <c r="N34" s="117"/>
-      <c r="O34" s="117"/>
-      <c r="P34" s="117"/>
-      <c r="Q34" s="117"/>
-      <c r="R34" s="117"/>
-      <c r="S34" s="117"/>
-      <c r="T34" s="117"/>
-      <c r="U34" s="117"/>
-      <c r="V34" s="117"/>
-      <c r="W34" s="117"/>
-      <c r="X34" s="117"/>
-      <c r="Y34" s="117"/>
-      <c r="Z34" s="117"/>
-      <c r="AA34" s="117"/>
-      <c r="AB34" s="117"/>
-      <c r="AC34" s="117"/>
-      <c r="AD34" s="117"/>
-      <c r="AE34" s="117"/>
-      <c r="AF34" s="117"/>
-      <c r="AG34" s="118"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="102"/>
+      <c r="J34" s="102"/>
+      <c r="K34" s="102"/>
+      <c r="L34" s="102"/>
+      <c r="M34" s="102"/>
+      <c r="N34" s="102"/>
+      <c r="O34" s="102"/>
+      <c r="P34" s="102"/>
+      <c r="Q34" s="102"/>
+      <c r="R34" s="102"/>
+      <c r="S34" s="102"/>
+      <c r="T34" s="102"/>
+      <c r="U34" s="102"/>
+      <c r="V34" s="102"/>
+      <c r="W34" s="102"/>
+      <c r="X34" s="102"/>
+      <c r="Y34" s="102"/>
+      <c r="Z34" s="102"/>
+      <c r="AA34" s="102"/>
+      <c r="AB34" s="102"/>
+      <c r="AC34" s="102"/>
+      <c r="AD34" s="102"/>
+      <c r="AE34" s="102"/>
+      <c r="AF34" s="102"/>
+      <c r="AG34" s="103"/>
     </row>
     <row r="37" spans="2:33">
-      <c r="B37" s="121" t="s">
+      <c r="B37" s="134" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="96"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="121" t="s">
+      <c r="C37" s="135"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="135"/>
+      <c r="F37" s="134" t="s">
         <v>89</v>
       </c>
-      <c r="G37" s="96"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="96"/>
-      <c r="J37" s="121" t="s">
+      <c r="G37" s="135"/>
+      <c r="H37" s="135"/>
+      <c r="I37" s="135"/>
+      <c r="J37" s="134" t="s">
         <v>92</v>
       </c>
-      <c r="K37" s="96"/>
-      <c r="L37" s="96"/>
-      <c r="M37" s="96"/>
-      <c r="N37" s="121" t="s">
+      <c r="K37" s="135"/>
+      <c r="L37" s="135"/>
+      <c r="M37" s="135"/>
+      <c r="N37" s="134" t="s">
         <v>93</v>
       </c>
-      <c r="O37" s="96"/>
-      <c r="P37" s="96"/>
-      <c r="Q37" s="96"/>
-      <c r="R37" s="121" t="s">
+      <c r="O37" s="135"/>
+      <c r="P37" s="135"/>
+      <c r="Q37" s="135"/>
+      <c r="R37" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="S37" s="96"/>
-      <c r="T37" s="96"/>
-      <c r="U37" s="96"/>
-      <c r="V37" s="121" t="s">
+      <c r="S37" s="135"/>
+      <c r="T37" s="135"/>
+      <c r="U37" s="135"/>
+      <c r="V37" s="134" t="s">
         <v>95</v>
       </c>
-      <c r="W37" s="96"/>
-      <c r="X37" s="96"/>
-      <c r="Y37" s="96"/>
-      <c r="Z37" s="121" t="s">
+      <c r="W37" s="135"/>
+      <c r="X37" s="135"/>
+      <c r="Y37" s="135"/>
+      <c r="Z37" s="134" t="s">
         <v>97</v>
       </c>
-      <c r="AA37" s="96"/>
-      <c r="AB37" s="96"/>
-      <c r="AC37" s="96"/>
-      <c r="AD37" s="121" t="s">
+      <c r="AA37" s="135"/>
+      <c r="AB37" s="135"/>
+      <c r="AC37" s="135"/>
+      <c r="AD37" s="134" t="s">
         <v>98</v>
       </c>
-      <c r="AE37" s="96"/>
-      <c r="AF37" s="96"/>
-      <c r="AG37" s="96"/>
+      <c r="AE37" s="135"/>
+      <c r="AF37" s="135"/>
+      <c r="AG37" s="135"/>
     </row>
     <row r="38" spans="2:33">
-      <c r="B38" s="119" t="s">
+      <c r="B38" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="124"/>
-      <c r="D38" s="124"/>
-      <c r="E38" s="124"/>
-      <c r="F38" s="124"/>
-      <c r="G38" s="124"/>
-      <c r="H38" s="124"/>
-      <c r="I38" s="125"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="114"/>
+      <c r="I38" s="115"/>
       <c r="J38" s="7"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -7420,64 +7959,64 @@
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
       <c r="Y38" s="3"/>
-      <c r="Z38" s="119" t="s">
+      <c r="Z38" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="AA38" s="124"/>
-      <c r="AB38" s="124"/>
-      <c r="AC38" s="124"/>
-      <c r="AD38" s="124"/>
-      <c r="AE38" s="124"/>
-      <c r="AF38" s="124"/>
-      <c r="AG38" s="125"/>
+      <c r="AA38" s="114"/>
+      <c r="AB38" s="114"/>
+      <c r="AC38" s="114"/>
+      <c r="AD38" s="114"/>
+      <c r="AE38" s="114"/>
+      <c r="AF38" s="114"/>
+      <c r="AG38" s="115"/>
     </row>
     <row r="39" spans="2:33">
-      <c r="B39" s="126"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="127"/>
-      <c r="E39" s="127"/>
-      <c r="F39" s="127"/>
-      <c r="G39" s="127"/>
-      <c r="H39" s="127"/>
-      <c r="I39" s="128"/>
-      <c r="J39" s="95" t="s">
+      <c r="B39" s="116"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="117"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="117"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="117"/>
+      <c r="I39" s="118"/>
+      <c r="J39" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="K39" s="103"/>
-      <c r="L39" s="103"/>
-      <c r="M39" s="103"/>
-      <c r="N39" s="103"/>
-      <c r="O39" s="103"/>
-      <c r="P39" s="103"/>
-      <c r="Q39" s="104"/>
-      <c r="R39" s="132" t="s">
+      <c r="K39" s="122"/>
+      <c r="L39" s="122"/>
+      <c r="M39" s="122"/>
+      <c r="N39" s="122"/>
+      <c r="O39" s="122"/>
+      <c r="P39" s="122"/>
+      <c r="Q39" s="123"/>
+      <c r="R39" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="S39" s="103"/>
-      <c r="T39" s="103"/>
-      <c r="U39" s="103"/>
-      <c r="V39" s="103"/>
-      <c r="W39" s="103"/>
-      <c r="X39" s="103"/>
-      <c r="Y39" s="104"/>
-      <c r="Z39" s="126"/>
-      <c r="AA39" s="127"/>
-      <c r="AB39" s="127"/>
-      <c r="AC39" s="127"/>
-      <c r="AD39" s="127"/>
-      <c r="AE39" s="127"/>
-      <c r="AF39" s="127"/>
-      <c r="AG39" s="128"/>
+      <c r="S39" s="122"/>
+      <c r="T39" s="122"/>
+      <c r="U39" s="122"/>
+      <c r="V39" s="122"/>
+      <c r="W39" s="122"/>
+      <c r="X39" s="122"/>
+      <c r="Y39" s="123"/>
+      <c r="Z39" s="116"/>
+      <c r="AA39" s="117"/>
+      <c r="AB39" s="117"/>
+      <c r="AC39" s="117"/>
+      <c r="AD39" s="117"/>
+      <c r="AE39" s="117"/>
+      <c r="AF39" s="117"/>
+      <c r="AG39" s="118"/>
     </row>
     <row r="40" spans="2:33">
-      <c r="B40" s="129"/>
-      <c r="C40" s="130"/>
-      <c r="D40" s="130"/>
-      <c r="E40" s="130"/>
-      <c r="F40" s="130"/>
-      <c r="G40" s="130"/>
-      <c r="H40" s="130"/>
-      <c r="I40" s="131"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="120"/>
+      <c r="D40" s="120"/>
+      <c r="E40" s="120"/>
+      <c r="F40" s="120"/>
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="121"/>
       <c r="J40" s="8"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
@@ -7494,14 +8033,14 @@
       <c r="W40" s="9"/>
       <c r="X40" s="9"/>
       <c r="Y40" s="10"/>
-      <c r="Z40" s="129"/>
-      <c r="AA40" s="130"/>
-      <c r="AB40" s="130"/>
-      <c r="AC40" s="130"/>
-      <c r="AD40" s="130"/>
-      <c r="AE40" s="130"/>
-      <c r="AF40" s="130"/>
-      <c r="AG40" s="131"/>
+      <c r="Z40" s="119"/>
+      <c r="AA40" s="120"/>
+      <c r="AB40" s="120"/>
+      <c r="AC40" s="120"/>
+      <c r="AD40" s="120"/>
+      <c r="AE40" s="120"/>
+      <c r="AF40" s="120"/>
+      <c r="AG40" s="121"/>
     </row>
     <row r="43" spans="2:33">
       <c r="I43" s="11">
@@ -7554,113 +8093,174 @@
       </c>
     </row>
     <row r="44" spans="2:33">
-      <c r="I44" s="111" t="s">
+      <c r="I44" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="J44" s="47" t="s">
+      <c r="J44" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="K44" s="65"/>
-      <c r="L44" s="111" t="s">
+      <c r="K44" s="90"/>
+      <c r="L44" s="107" t="s">
         <v>87</v>
       </c>
-      <c r="M44" s="47" t="s">
+      <c r="M44" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="N44" s="64"/>
-      <c r="O44" s="64"/>
-      <c r="P44" s="65"/>
-      <c r="Q44" s="111">
+      <c r="N44" s="89"/>
+      <c r="O44" s="89"/>
+      <c r="P44" s="90"/>
+      <c r="Q44" s="107">
         <v>0</v>
       </c>
-      <c r="R44" s="120">
+      <c r="R44" s="136">
         <v>0</v>
       </c>
-      <c r="S44" s="111">
+      <c r="S44" s="107">
         <v>0</v>
       </c>
-      <c r="T44" s="133" t="s">
+      <c r="T44" s="125" t="s">
         <v>100</v>
       </c>
-      <c r="U44" s="134"/>
-      <c r="V44" s="134"/>
-      <c r="W44" s="134"/>
-      <c r="X44" s="135"/>
+      <c r="U44" s="126"/>
+      <c r="V44" s="126"/>
+      <c r="W44" s="126"/>
+      <c r="X44" s="127"/>
     </row>
     <row r="45" spans="2:33">
-      <c r="I45" s="112"/>
-      <c r="J45" s="97"/>
-      <c r="K45" s="114"/>
-      <c r="L45" s="112"/>
-      <c r="M45" s="97"/>
-      <c r="N45" s="115"/>
-      <c r="O45" s="115"/>
-      <c r="P45" s="114"/>
-      <c r="Q45" s="112"/>
-      <c r="R45" s="112"/>
-      <c r="S45" s="112"/>
-      <c r="T45" s="136"/>
-      <c r="U45" s="137"/>
-      <c r="V45" s="137"/>
-      <c r="W45" s="137"/>
-      <c r="X45" s="138"/>
+      <c r="I45" s="108"/>
+      <c r="J45" s="110"/>
+      <c r="K45" s="111"/>
+      <c r="L45" s="108"/>
+      <c r="M45" s="110"/>
+      <c r="N45" s="112"/>
+      <c r="O45" s="112"/>
+      <c r="P45" s="111"/>
+      <c r="Q45" s="108"/>
+      <c r="R45" s="108"/>
+      <c r="S45" s="108"/>
+      <c r="T45" s="128"/>
+      <c r="U45" s="129"/>
+      <c r="V45" s="129"/>
+      <c r="W45" s="129"/>
+      <c r="X45" s="130"/>
     </row>
     <row r="46" spans="2:33">
-      <c r="I46" s="113"/>
-      <c r="J46" s="48"/>
-      <c r="K46" s="67"/>
-      <c r="L46" s="113"/>
-      <c r="M46" s="48"/>
-      <c r="N46" s="66"/>
-      <c r="O46" s="66"/>
-      <c r="P46" s="67"/>
-      <c r="Q46" s="113"/>
-      <c r="R46" s="113"/>
-      <c r="S46" s="113"/>
-      <c r="T46" s="139"/>
-      <c r="U46" s="140"/>
-      <c r="V46" s="140"/>
-      <c r="W46" s="140"/>
-      <c r="X46" s="141"/>
+      <c r="I46" s="109"/>
+      <c r="J46" s="80"/>
+      <c r="K46" s="92"/>
+      <c r="L46" s="109"/>
+      <c r="M46" s="80"/>
+      <c r="N46" s="91"/>
+      <c r="O46" s="91"/>
+      <c r="P46" s="92"/>
+      <c r="Q46" s="109"/>
+      <c r="R46" s="109"/>
+      <c r="S46" s="109"/>
+      <c r="T46" s="131"/>
+      <c r="U46" s="132"/>
+      <c r="V46" s="132"/>
+      <c r="W46" s="132"/>
+      <c r="X46" s="133"/>
     </row>
     <row r="48" spans="2:33">
-      <c r="B48" s="116" t="s">
+      <c r="B48" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="117"/>
-      <c r="D48" s="117"/>
-      <c r="E48" s="117"/>
-      <c r="F48" s="117"/>
-      <c r="G48" s="117"/>
-      <c r="H48" s="117"/>
-      <c r="I48" s="117"/>
-      <c r="J48" s="117"/>
-      <c r="K48" s="117"/>
-      <c r="L48" s="117"/>
-      <c r="M48" s="117"/>
-      <c r="N48" s="117"/>
-      <c r="O48" s="117"/>
-      <c r="P48" s="117"/>
-      <c r="Q48" s="117"/>
-      <c r="R48" s="117"/>
-      <c r="S48" s="117"/>
-      <c r="T48" s="117"/>
-      <c r="U48" s="117"/>
-      <c r="V48" s="117"/>
-      <c r="W48" s="117"/>
-      <c r="X48" s="117"/>
-      <c r="Y48" s="117"/>
-      <c r="Z48" s="117"/>
-      <c r="AA48" s="117"/>
-      <c r="AB48" s="117"/>
-      <c r="AC48" s="117"/>
-      <c r="AD48" s="117"/>
-      <c r="AE48" s="117"/>
-      <c r="AF48" s="117"/>
-      <c r="AG48" s="118"/>
+      <c r="C48" s="102"/>
+      <c r="D48" s="102"/>
+      <c r="E48" s="102"/>
+      <c r="F48" s="102"/>
+      <c r="G48" s="102"/>
+      <c r="H48" s="102"/>
+      <c r="I48" s="102"/>
+      <c r="J48" s="102"/>
+      <c r="K48" s="102"/>
+      <c r="L48" s="102"/>
+      <c r="M48" s="102"/>
+      <c r="N48" s="102"/>
+      <c r="O48" s="102"/>
+      <c r="P48" s="102"/>
+      <c r="Q48" s="102"/>
+      <c r="R48" s="102"/>
+      <c r="S48" s="102"/>
+      <c r="T48" s="102"/>
+      <c r="U48" s="102"/>
+      <c r="V48" s="102"/>
+      <c r="W48" s="102"/>
+      <c r="X48" s="102"/>
+      <c r="Y48" s="102"/>
+      <c r="Z48" s="102"/>
+      <c r="AA48" s="102"/>
+      <c r="AB48" s="102"/>
+      <c r="AC48" s="102"/>
+      <c r="AD48" s="102"/>
+      <c r="AE48" s="102"/>
+      <c r="AF48" s="102"/>
+      <c r="AG48" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="B10:E12"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="F11:M11"/>
+    <mergeCell ref="N11:Y11"/>
+    <mergeCell ref="Z11:AG11"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="M16:M18"/>
+    <mergeCell ref="N16:O18"/>
+    <mergeCell ref="P16:P18"/>
+    <mergeCell ref="Q16:T18"/>
+    <mergeCell ref="B20:AG20"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:L18"/>
+    <mergeCell ref="V23:Y23"/>
+    <mergeCell ref="Z23:AC23"/>
+    <mergeCell ref="AD23:AG23"/>
+    <mergeCell ref="B24:E26"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="F25:M25"/>
+    <mergeCell ref="N25:Y25"/>
+    <mergeCell ref="Z25:AG25"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="R26:U26"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="R23:U23"/>
+    <mergeCell ref="M30:M32"/>
+    <mergeCell ref="N30:O32"/>
+    <mergeCell ref="P30:P32"/>
+    <mergeCell ref="Q30:T32"/>
+    <mergeCell ref="B34:AG34"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="I30:L32"/>
+    <mergeCell ref="Q44:Q46"/>
+    <mergeCell ref="R44:R46"/>
+    <mergeCell ref="Z37:AC37"/>
+    <mergeCell ref="AD37:AG37"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="R37:U37"/>
     <mergeCell ref="B48:AG48"/>
     <mergeCell ref="B3:N4"/>
     <mergeCell ref="B6:Q6"/>
@@ -7677,67 +8277,6 @@
     <mergeCell ref="S44:S46"/>
     <mergeCell ref="T44:X46"/>
     <mergeCell ref="V37:Y37"/>
-    <mergeCell ref="Q44:Q46"/>
-    <mergeCell ref="R44:R46"/>
-    <mergeCell ref="Z37:AC37"/>
-    <mergeCell ref="AD37:AG37"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="R37:U37"/>
-    <mergeCell ref="M30:M32"/>
-    <mergeCell ref="N30:O32"/>
-    <mergeCell ref="P30:P32"/>
-    <mergeCell ref="Q30:T32"/>
-    <mergeCell ref="B34:AG34"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="I30:L32"/>
-    <mergeCell ref="V23:Y23"/>
-    <mergeCell ref="Z23:AC23"/>
-    <mergeCell ref="AD23:AG23"/>
-    <mergeCell ref="B24:E26"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="F25:M25"/>
-    <mergeCell ref="N25:Y25"/>
-    <mergeCell ref="Z25:AG25"/>
-    <mergeCell ref="N26:Q26"/>
-    <mergeCell ref="R26:U26"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="R23:U23"/>
-    <mergeCell ref="M16:M18"/>
-    <mergeCell ref="N16:O18"/>
-    <mergeCell ref="P16:P18"/>
-    <mergeCell ref="Q16:T18"/>
-    <mergeCell ref="B20:AG20"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:L18"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="B10:E12"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="F11:M11"/>
-    <mergeCell ref="N11:Y11"/>
-    <mergeCell ref="Z11:AG11"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7761,158 +8300,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="C1" s="144" t="s">
+      <c r="C1" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="H1" s="144"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="C3" s="145" t="s">
+      <c r="C3" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="D3" s="143" t="s">
+      <c r="D3" s="147" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="122"/>
-      <c r="G3" s="144" t="s">
+      <c r="E3" s="104"/>
+      <c r="G3" s="24" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="D4" s="142"/>
-      <c r="E4" s="104"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="123"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="D5" s="142"/>
-      <c r="E5" s="104"/>
-      <c r="G5" s="144" t="s">
+      <c r="D5" s="148"/>
+      <c r="E5" s="123"/>
+      <c r="G5" s="24" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="D6" s="142"/>
-      <c r="E6" s="104"/>
-      <c r="G6" s="144" t="s">
+      <c r="D6" s="148"/>
+      <c r="E6" s="123"/>
+      <c r="G6" s="24" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="D7" s="142"/>
-      <c r="E7" s="104"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="123"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="D8" s="142"/>
-      <c r="E8" s="104"/>
-      <c r="G8" s="144" t="s">
+      <c r="D8" s="148"/>
+      <c r="E8" s="123"/>
+      <c r="G8" s="24" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="D9" s="142"/>
-      <c r="E9" s="104"/>
-      <c r="G9" s="144" t="s">
+      <c r="D9" s="148"/>
+      <c r="E9" s="123"/>
+      <c r="G9" s="24" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="D10" s="142"/>
-      <c r="E10" s="104"/>
-      <c r="G10" s="144" t="s">
+      <c r="D10" s="148"/>
+      <c r="E10" s="123"/>
+      <c r="G10" s="24" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="C11" s="145" t="s">
+      <c r="C11" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="110"/>
-      <c r="G11" s="144" t="s">
+      <c r="D11" s="106"/>
+      <c r="E11" s="105"/>
+      <c r="G11" s="24" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="C12" s="145" t="s">
+      <c r="C12" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="D12" s="143" t="s">
+      <c r="D12" s="147" t="s">
         <v>151</v>
       </c>
-      <c r="E12" s="122"/>
-      <c r="G12" s="144" t="s">
+      <c r="E12" s="104"/>
+      <c r="G12" s="24" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="D13" s="142"/>
-      <c r="E13" s="104"/>
-      <c r="G13" s="144" t="s">
+      <c r="D13" s="148"/>
+      <c r="E13" s="123"/>
+      <c r="G13" s="24" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="144" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14" s="144" t="s">
-        <v>184</v>
-      </c>
-      <c r="C14" s="145" t="s">
+      <c r="A14" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="D14" s="123"/>
-      <c r="E14" s="110"/>
-      <c r="G14" s="144" t="s">
+      <c r="D14" s="106"/>
+      <c r="E14" s="105"/>
+      <c r="G14" s="24" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="C15" s="145" t="s">
+      <c r="C15" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="D15" s="143" t="s">
+      <c r="D15" s="147" t="s">
         <v>152</v>
       </c>
-      <c r="E15" s="122"/>
-      <c r="G15" s="144" t="s">
+      <c r="E15" s="104"/>
+      <c r="G15" s="24" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="D16" s="142"/>
-      <c r="E16" s="104"/>
-      <c r="G16" s="144" t="s">
+      <c r="D16" s="148"/>
+      <c r="E16" s="123"/>
+      <c r="G16" s="24" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="17" spans="3:5">
-      <c r="D17" s="142"/>
-      <c r="E17" s="104"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="123"/>
     </row>
     <row r="18" spans="3:5">
-      <c r="D18" s="142"/>
-      <c r="E18" s="104"/>
+      <c r="D18" s="148"/>
+      <c r="E18" s="123"/>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="145" t="s">
+      <c r="C19" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="D19" s="123"/>
-      <c r="E19" s="110"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="105"/>
     </row>
     <row r="21" spans="3:5">
-      <c r="C21" s="144" t="s">
+      <c r="C21" s="24" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="23" spans="3:5">
-      <c r="C23" s="144" t="s">
+      <c r="C23" s="24" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="25" spans="3:5">
-      <c r="C25" s="144" t="s">
-        <v>186</v>
+      <c r="C25" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -7928,10 +8467,166 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:D33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="C3" s="24" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="C7" s="24" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="C10" s="24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="C11" s="24" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="C12" s="24" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="26" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="26" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C19" t="s">
+        <v>282</v>
+      </c>
+      <c r="D19" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>284</v>
+      </c>
+      <c r="C20" t="s">
+        <v>285</v>
+      </c>
+      <c r="D20" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="26" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" t="s">
+        <v>281</v>
+      </c>
+      <c r="C25" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" t="s">
+        <v>284</v>
+      </c>
+      <c r="C26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="26" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7941,163 +8636,163 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="C3" s="24" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="24"/>
+      <c r="D4" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="24"/>
+      <c r="D5" s="24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="24"/>
+      <c r="D6" s="24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="C7" s="24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="24"/>
+      <c r="D8" s="24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="24"/>
+      <c r="D9" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="24"/>
+      <c r="D10" s="24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="24"/>
+      <c r="D11" s="24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="24"/>
+      <c r="D12" s="24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="24"/>
+      <c r="D13" s="24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="24"/>
+      <c r="D14" s="24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="26" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
-      <c r="C3" s="144" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="144"/>
-      <c r="D4" s="144" t="s">
+    <row r="16" spans="2:4">
+      <c r="D16" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="D17" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="D18" s="24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="D19" s="24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="D20" s="24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" s="27" customFormat="1">
+      <c r="D21" s="28"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="D22" s="24"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="24">
+        <v>1</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="D23" s="24"/>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="24">
+        <v>2</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="D24" s="24"/>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="D25" s="24"/>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="26" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="144"/>
-      <c r="D5" s="144" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="144"/>
-      <c r="D6" s="144" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="C7" s="144" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="144"/>
-      <c r="D8" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="144"/>
-      <c r="D9" s="144" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="144"/>
-      <c r="D10" s="144" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="144"/>
-      <c r="D11" s="144" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="144"/>
-      <c r="D12" s="144" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="144"/>
-      <c r="D13" s="144" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="144"/>
-      <c r="D14" s="144" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="146" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="D16" s="144" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="D17" s="144" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="D18" s="144" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="D19" s="144" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="D20" s="144" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" s="147" customFormat="1">
-      <c r="D21" s="148"/>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="146" t="s">
-        <v>218</v>
-      </c>
-      <c r="D22" s="144"/>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="144">
-        <v>1</v>
-      </c>
-      <c r="C23" s="144" t="s">
-        <v>220</v>
-      </c>
-      <c r="D23" s="144"/>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="144">
-        <v>2</v>
-      </c>
-      <c r="C24" s="144" t="s">
-        <v>219</v>
-      </c>
-      <c r="D24" s="144"/>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="D25" s="144"/>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="146" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" s="144" t="s">
-        <v>217</v>
+      <c r="C27" s="24" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28">
         <v>2</v>
       </c>
-      <c r="C28" s="144" t="s">
-        <v>178</v>
+      <c r="C28" s="24" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="146" t="s">
+      <c r="B30" s="26" t="s">
         <v>171</v>
       </c>
     </row>
@@ -8105,265 +8800,510 @@
       <c r="B31">
         <v>1</v>
       </c>
-      <c r="C31" s="144" t="s">
-        <v>208</v>
+      <c r="C31" s="24" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32">
         <v>2</v>
       </c>
-      <c r="C32" s="144" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" s="147" customFormat="1"/>
+      <c r="C32" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" s="27" customFormat="1"/>
     <row r="34" spans="2:4">
-      <c r="B34" s="146" t="s">
-        <v>221</v>
-      </c>
-      <c r="D34" s="144"/>
+      <c r="B34" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="D34" s="24"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="144">
+      <c r="B35" s="24">
         <v>1</v>
       </c>
-      <c r="C35" s="144" t="s">
-        <v>222</v>
-      </c>
-      <c r="D35" s="144"/>
+      <c r="C35" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="D35" s="24"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="144">
+      <c r="B36" s="24">
         <v>2</v>
       </c>
-      <c r="C36" s="144" t="s">
-        <v>223</v>
-      </c>
-      <c r="D36" s="144"/>
+      <c r="C36" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="D36" s="24"/>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="144"/>
-      <c r="C37" s="144"/>
-      <c r="D37" s="144"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="146" t="s">
-        <v>189</v>
+      <c r="B38" s="26" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="B39">
         <v>1</v>
       </c>
-      <c r="C39" s="144" t="s">
-        <v>188</v>
+      <c r="C39" s="24" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40">
         <v>2</v>
       </c>
-      <c r="C40" s="144" t="s">
-        <v>179</v>
+      <c r="C40" s="24" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="2:4">
-      <c r="C41" s="144"/>
+      <c r="C41" s="24"/>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="146" t="s">
-        <v>213</v>
+      <c r="B42" s="26" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="B43">
         <v>1</v>
       </c>
-      <c r="C43" s="144" t="s">
-        <v>188</v>
-      </c>
-      <c r="D43" s="144"/>
+      <c r="C43" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="D43" s="24"/>
     </row>
     <row r="44" spans="2:4">
       <c r="B44">
         <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="2:4">
-      <c r="B46" s="146" t="s">
-        <v>216</v>
+      <c r="B46" s="26" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="2:4">
-      <c r="B47" s="144">
+      <c r="B47" s="24">
         <v>1</v>
       </c>
-      <c r="C47" s="144" t="s">
-        <v>215</v>
+      <c r="C47" s="24" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="2:4">
-      <c r="B48" s="144">
+      <c r="B48" s="24">
         <v>2</v>
       </c>
-      <c r="C48" s="144" t="s">
-        <v>181</v>
+      <c r="C48" s="24" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="146" t="s">
-        <v>196</v>
+      <c r="B50" s="26" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="2:4">
       <c r="B51">
         <v>1</v>
       </c>
-      <c r="C51" s="144" t="s">
-        <v>207</v>
-      </c>
-      <c r="D51" s="144"/>
+      <c r="C51" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="D51" s="24"/>
     </row>
     <row r="52" spans="2:4">
       <c r="B52">
         <v>2</v>
       </c>
-      <c r="C52" s="144" t="s">
+      <c r="C52" s="24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" s="27" customFormat="1">
+      <c r="C53" s="28"/>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="D54" s="24"/>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="24">
+        <v>1</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="D55" s="24"/>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="24">
+        <v>2</v>
+      </c>
+      <c r="C56" s="24" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="53" spans="2:4" s="147" customFormat="1">
-      <c r="C53" s="148"/>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="B54" s="146" t="s">
-        <v>212</v>
-      </c>
-      <c r="D54" s="144"/>
-    </row>
-    <row r="55" spans="2:4">
-      <c r="B55" s="144">
-        <v>1</v>
-      </c>
-      <c r="C55" s="144" t="s">
-        <v>211</v>
-      </c>
-      <c r="D55" s="144"/>
-    </row>
-    <row r="56" spans="2:4">
-      <c r="B56" s="144">
-        <v>2</v>
-      </c>
-      <c r="C56" s="144" t="s">
-        <v>192</v>
-      </c>
-    </row>
     <row r="57" spans="2:4">
-      <c r="B57" s="144">
+      <c r="B57" s="24">
         <v>3</v>
       </c>
-      <c r="C57" s="144" t="s">
-        <v>193</v>
+      <c r="C57" s="24" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="2:4">
-      <c r="B59" s="146" t="s">
-        <v>195</v>
+      <c r="B59" s="26" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="60" spans="2:4">
       <c r="B60">
         <v>1</v>
       </c>
-      <c r="C60" s="144" t="s">
-        <v>191</v>
+      <c r="C60" s="24" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61">
         <v>2</v>
       </c>
-      <c r="C61" s="144" t="s">
-        <v>188</v>
+      <c r="C61" s="24" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="2:4">
       <c r="B62">
         <v>3</v>
       </c>
-      <c r="C62" s="144" t="s">
-        <v>182</v>
+      <c r="C62" s="24" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="63" spans="2:4">
-      <c r="C63" s="144"/>
+      <c r="C63" s="24"/>
     </row>
     <row r="64" spans="2:4">
-      <c r="B64" s="146" t="s">
-        <v>197</v>
+      <c r="B64" s="26" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65">
         <v>1</v>
       </c>
-      <c r="C65" s="144" t="s">
-        <v>207</v>
-      </c>
-      <c r="D65" s="144"/>
+      <c r="C65" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="D65" s="24"/>
     </row>
     <row r="66" spans="2:4">
       <c r="B66">
         <v>2</v>
       </c>
-      <c r="C66" s="144" t="s">
-        <v>187</v>
+      <c r="C66" s="24" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="2:4">
       <c r="B67">
         <v>3</v>
       </c>
-      <c r="C67" s="144" t="s">
-        <v>210</v>
-      </c>
-      <c r="D67" s="144"/>
+      <c r="C67" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="D67" s="24"/>
     </row>
     <row r="68" spans="2:4">
       <c r="B68">
         <v>4</v>
       </c>
-      <c r="C68" s="144" t="s">
-        <v>187</v>
+      <c r="C68" s="24" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="2:4">
-      <c r="B71" s="144" t="s">
-        <v>173</v>
-      </c>
+      <c r="B71" s="24"/>
     </row>
     <row r="72" spans="2:4">
-      <c r="B72" s="144" t="s">
-        <v>174</v>
-      </c>
+      <c r="B72" s="24"/>
     </row>
     <row r="73" spans="2:4">
-      <c r="B73" s="144" t="s">
-        <v>175</v>
-      </c>
+      <c r="B73" s="24"/>
     </row>
     <row r="74" spans="2:4">
-      <c r="B74" s="144" t="s">
-        <v>176</v>
-      </c>
+      <c r="B74" s="24"/>
     </row>
     <row r="75" spans="2:4">
-      <c r="B75" s="144" t="s">
-        <v>177</v>
+      <c r="B75" s="24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:C41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="24" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="24" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="24" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="26" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="24" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="24" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="24" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="24" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="24" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="24" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="24" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="26" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" t="s">
+        <v>272</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/386示意图.xlsx
+++ b/386示意图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="3195" windowWidth="15315" windowHeight="3240" activeTab="7"/>
+    <workbookView xWindow="-15" yWindow="3195" windowWidth="15315" windowHeight="3240" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="结构图" sheetId="3" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="转移指令" sheetId="5" r:id="rId6"/>
     <sheet name="寻址方式" sheetId="6" r:id="rId7"/>
     <sheet name="中断" sheetId="8" r:id="rId8"/>
+    <sheet name="外设" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
@@ -637,8 +638,130 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B46" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Insert状态，置1表示处于删除状态</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C46" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>CapsLock状态，置1表示输入大写字母</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D46" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>NumLock状态，置1表示小键盘输入是数字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E46" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ScrollLock状态，置1表示Scroll指示灯亮</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F46" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Alt状态，置1表示按下了该键</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G46" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Ctrl状态，置1表示按下了该键</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H46" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>左shift状态，置1表示按下了该键</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I46" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>右shift状态，置1表示按下了该键</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="354">
   <si>
     <t>31       16</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1351,72 +1474,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>j</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>mp 某一合法寄存器　修改IP</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>j</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>mp 段地址:偏移地址 修改CS,IP</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8086CPU的入桡和出桡操作都是以字为单位进行的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>push ax的执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 SP=SP-2，SS:SP指向当前桡顶前面的单元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 将 ax 中的内容送入 SS:SP 指向的内存单元处，SS:SP此时指向新桡顶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高内存单元为桡底，底内存单元为桡顶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pop ax 的执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 将SS:SP指向的内存单元处的数据送入ax中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 SP=SP+2, SS:SP指向当前桡顶下面的单元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>push 寄存器，段寄存器，内存单元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>loop 标号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1505,10 +1562,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>80*25彩色显示模式，每个字符有256种属性，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>(</t>
     </r>
@@ -2112,12 +2165,514 @@
     <t>设置 IF=1|0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>堆栈指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ush 寄存器|段寄存器|内存单元</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop 寄存器|段寄存器|内存单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 (sp)=(sp)-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 mov ss:[sp],ax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 mov ax,ss:[sp]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 (sp)=(sp)+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8086CPU的入栈和出栈操作都是以字为单位进行的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80*25 彩色显示模式，每个字符有256种属性，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PU 在执行 mov ss,reg 指令后，并不响应中断</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*80磁道*18扇区*512字节=1440KB 约1.44MB</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>面号、磁道号从0开始，扇区号从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1开始</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nt 13</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(ah)=功能号(2:读,3:写)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(al)=读取|写入的扇区数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(ch)=磁道号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(cl)=扇区号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(dh)=磁头号(对于软盘即面号)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(dl)=驱动器号(0:软区A,1:软区B,80H:硬盘C，81H:硬盘D)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入口参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作失败：(ah)=出错代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>es:bx 指向接收从扇区读入数据的内存区</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指向将写入磁盘的数据</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>操作成功：(ah)=0,(al)=读入</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>写入的扇区数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>IOS</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5英寸软盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按下一个键产生的扫描码称为通码，松开一个键产生的扫描码称为断码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>断码=通码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+80H</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫描码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Esc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02~0A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当扫描码被送到端口 60H 中时，相关芯片会向 CPU 发了出类型码为 9 的可屏蔽中断信息。如果 IF=1 则响应中断。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nt 9</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 读出 60 端口中的扫描码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 如果是字符键，则将扫描码和 ASCII 码送入内存中的 BIOS 键盘缓冲区。如果是控制键，则将其写入状态字节单元。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘缓冲区可存储 15 个键盘输入，高位字节存放扫描码，低位字节存放字符码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0040:17存储键盘状态字节，其信息如下：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int 16H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取键盘缓冲区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(ah)=功能号(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ah)=扫描码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 检测缓冲区是否有数据</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 没有则继续 1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 读取缓冲区第一个字单元中的键盘输入</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(al)=ASCII码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 (ah)=扫描码,(al)=ASCII码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 将已读取的键盘输入从缓冲区中删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>640K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>68K</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>28K</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56K</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -2253,8 +2808,16 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2276,6 +2839,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2506,7 +3075,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2921,6 +3490,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4884,7 +5456,7 @@
   <dimension ref="B2:AT34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AO22" sqref="AO22"/>
+      <selection activeCell="AP18" sqref="AP18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8288,10 +8860,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A2:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8299,129 +8871,121 @@
     <col min="5" max="5" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="C1" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="C3" s="25" t="s">
+    <row r="2" spans="1:7">
+      <c r="C2" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="D3" s="147" t="s">
+      <c r="D2" s="147" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="104"/>
-      <c r="G3" s="24" t="s">
+      <c r="E2" s="104"/>
+      <c r="G2" s="24" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="3" spans="1:7">
+      <c r="D3" s="148"/>
+      <c r="E3" s="123"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="D4" s="148"/>
       <c r="E4" s="123"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="G4" s="24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="D5" s="148"/>
       <c r="E5" s="123"/>
-      <c r="G5" s="24" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="D6" s="148"/>
       <c r="E6" s="123"/>
       <c r="G6" s="24" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="D7" s="148"/>
       <c r="E7" s="123"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:7">
       <c r="D8" s="148"/>
       <c r="E8" s="123"/>
-      <c r="G8" s="24" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="D9" s="148"/>
       <c r="E9" s="123"/>
-      <c r="G9" s="24" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="D10" s="148"/>
-      <c r="E10" s="123"/>
-      <c r="G10" s="24" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="C10" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="106"/>
+      <c r="E10" s="105"/>
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="24" t="s">
+        <v>350</v>
+      </c>
       <c r="C11" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="D11" s="106"/>
-      <c r="E11" s="105"/>
-      <c r="G11" s="24" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="D12" s="147" t="s">
+      <c r="D11" s="147" t="s">
         <v>151</v>
       </c>
-      <c r="E12" s="104"/>
-      <c r="G12" s="24" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="D13" s="148"/>
-      <c r="E13" s="123"/>
-      <c r="G13" s="24" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="E11" s="104"/>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="D12" s="148"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" s="106"/>
+      <c r="E13" s="105"/>
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>179</v>
+        <v>351</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="D14" s="106"/>
-      <c r="E14" s="105"/>
-      <c r="G14" s="24" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="C15" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="D15" s="147" t="s">
+      <c r="D14" s="147" t="s">
         <v>152</v>
       </c>
-      <c r="E15" s="104"/>
-      <c r="G15" s="24" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="E14" s="104"/>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="D15" s="148"/>
+      <c r="E15" s="123"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="D16" s="148"/>
       <c r="E16" s="123"/>
-      <c r="G16" s="24" t="s">
-        <v>169</v>
+      <c r="F16" s="24" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="3:5">
@@ -8429,36 +8993,22 @@
       <c r="E17" s="123"/>
     </row>
     <row r="18" spans="3:5">
-      <c r="D18" s="148"/>
-      <c r="E18" s="123"/>
-    </row>
-    <row r="19" spans="3:5">
-      <c r="C19" s="25" t="s">
+      <c r="C18" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="D19" s="106"/>
-      <c r="E19" s="105"/>
-    </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="24" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="24" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5">
-      <c r="C25" s="24" t="s">
-        <v>181</v>
+      <c r="D18" s="106"/>
+      <c r="E18" s="105"/>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="D20" s="24" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D3:E11"/>
-    <mergeCell ref="D12:E14"/>
-    <mergeCell ref="D15:E19"/>
+    <mergeCell ref="D2:E10"/>
+    <mergeCell ref="D11:E13"/>
+    <mergeCell ref="D14:E18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8467,10 +9017,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D33"/>
+  <dimension ref="B2:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8481,137 +9031,189 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="26" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="C3" s="24" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="24" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="C7" s="24" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="24" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="C10" s="24" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="C11" s="24" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="C12" s="24" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="26" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="26" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C19" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="D19" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="C20" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D20" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="26" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C25" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="C26" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="26" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="24" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="26" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>295</v>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="26" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="26"/>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="24" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="24"/>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="24" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="24"/>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" s="24" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" s="24" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" s="24"/>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="24" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" s="24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" s="24" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -8637,107 +9239,107 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="26" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="C3" s="24" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="24"/>
       <c r="D4" s="24" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="24"/>
       <c r="D5" s="24" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="24"/>
       <c r="D6" s="24" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="C7" s="24" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="24"/>
       <c r="D8" s="24" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="24"/>
       <c r="D9" s="24" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="24"/>
       <c r="D10" s="24" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="24"/>
       <c r="D11" s="24" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="24"/>
       <c r="D12" s="24" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="24"/>
       <c r="D13" s="24" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="24"/>
       <c r="D14" s="24" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="26" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="D16" s="24" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="D17" s="24" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="D18" s="24" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="D19" s="24" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="D20" s="24" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="2:4" s="27" customFormat="1">
@@ -8745,7 +9347,7 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="26" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -8754,7 +9356,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="D23" s="24"/>
     </row>
@@ -8763,7 +9365,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D24" s="24"/>
     </row>
@@ -8772,7 +9374,7 @@
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="26" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -8780,7 +9382,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -8788,12 +9390,12 @@
         <v>2</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="26" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -8801,7 +9403,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="2:4">
@@ -8809,13 +9411,13 @@
         <v>2</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="2:4" s="27" customFormat="1"/>
     <row r="34" spans="2:4">
       <c r="B34" s="26" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D34" s="24"/>
     </row>
@@ -8824,7 +9426,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D35" s="24"/>
     </row>
@@ -8833,7 +9435,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="D36" s="24"/>
     </row>
@@ -8844,7 +9446,7 @@
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="26" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="2:4">
@@ -8852,7 +9454,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="2:4">
@@ -8860,7 +9462,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="2:4">
@@ -8868,7 +9470,7 @@
     </row>
     <row r="42" spans="2:4">
       <c r="B42" s="26" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="2:4">
@@ -8876,7 +9478,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D43" s="24"/>
     </row>
@@ -8885,12 +9487,12 @@
         <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="B46" s="26" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="2:4">
@@ -8898,7 +9500,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="2:4">
@@ -8906,12 +9508,12 @@
         <v>2</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="26" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51" spans="2:4">
@@ -8919,7 +9521,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D51" s="24"/>
     </row>
@@ -8928,7 +9530,7 @@
         <v>2</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="2:4" s="27" customFormat="1">
@@ -8936,7 +9538,7 @@
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="26" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="D54" s="24"/>
     </row>
@@ -8945,7 +9547,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="D55" s="24"/>
     </row>
@@ -8954,7 +9556,7 @@
         <v>2</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57" spans="2:4">
@@ -8962,12 +9564,12 @@
         <v>3</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" spans="2:4">
       <c r="B59" s="26" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" spans="2:4">
@@ -8975,7 +9577,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="2:4">
@@ -8983,7 +9585,7 @@
         <v>2</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="2:4">
@@ -8991,7 +9593,7 @@
         <v>3</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="2:4">
@@ -8999,7 +9601,7 @@
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="26" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="2:4">
@@ -9007,7 +9609,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D65" s="24"/>
     </row>
@@ -9016,7 +9618,7 @@
         <v>2</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67" spans="2:4">
@@ -9024,7 +9626,7 @@
         <v>3</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D67" s="24"/>
     </row>
@@ -9033,7 +9635,7 @@
         <v>4</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="2:4">
@@ -9059,10 +9661,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D7"/>
+  <dimension ref="B2:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9074,68 +9676,73 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="24" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="24" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="24" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="24" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="24" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="24" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>236</v>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="24" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -9146,168 +9753,480 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C41"/>
+  <dimension ref="B2:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="24" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="24" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="24" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="26" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="24" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="24" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="24" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="24" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="24" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="24" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="26" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="24" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="24" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="26" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="24" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="24" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="24" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>277</v>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" s="26" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="24" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:I57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O46" sqref="O46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="26" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="24" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="24" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="24"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="24" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="24" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="24" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="24" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="24" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="24" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="24" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="24" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="24" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="24" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="24" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="26" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="24" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="24"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="24" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="24" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="I33" s="24" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I34" s="25" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="I35" s="25" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="24" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="24" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="24" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="24" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="24" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="149">
+        <v>7</v>
+      </c>
+      <c r="C46" s="149">
+        <v>6</v>
+      </c>
+      <c r="D46" s="149">
+        <v>5</v>
+      </c>
+      <c r="E46" s="149">
+        <v>4</v>
+      </c>
+      <c r="F46" s="149">
+        <v>3</v>
+      </c>
+      <c r="G46" s="149">
+        <v>2</v>
+      </c>
+      <c r="H46" s="149">
+        <v>1</v>
+      </c>
+      <c r="I46" s="149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="D51" s="24" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="D53" s="24" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="24" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="24" t="s">
+        <v>347</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>